--- a/PythonResources/Data/Consumption/Sympheny/futu_CA_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_CA_hea.xlsx
@@ -479,7 +479,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>82.6026583887775</v>
+        <v>82.60265838877748</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -583,7 +583,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>2412.500417626231</v>
+        <v>2412.50041762623</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -607,7 +607,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>1760.308627249394</v>
+        <v>1760.308627249393</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -615,7 +615,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>1550.605455458771</v>
+        <v>1550.60545545877</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -663,7 +663,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>773.0258588300253</v>
+        <v>773.0258588300252</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -671,7 +671,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>781.5732756725835</v>
+        <v>781.5732756725833</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -719,7 +719,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>91.56940127345229</v>
+        <v>91.56940127345227</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -799,7 +799,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>909.0835023864776</v>
+        <v>909.0835023864774</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -823,7 +823,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>527.2409530435722</v>
+        <v>527.2409530435721</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -903,7 +903,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>43.30124596221377</v>
+        <v>43.30124596221376</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -919,7 +919,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>49.77882221783268</v>
+        <v>49.77882221783267</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1071,7 +1071,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>590.0050466832859</v>
+        <v>590.0050466832857</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1087,7 +1087,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>38.5449960757788</v>
+        <v>38.54499607577879</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1095,7 +1095,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>40.42240914944338</v>
+        <v>40.42240914944337</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1103,7 +1103,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>42.2883139095618</v>
+        <v>42.28831390956179</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1247,7 +1247,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>522.3252725121054</v>
+        <v>522.3252725121052</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1271,7 +1271,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>48.00913912726962</v>
+        <v>48.00913912726961</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1295,7 +1295,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>58.53141516384724</v>
+        <v>58.53141516384722</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1351,7 +1351,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>169.2016334607411</v>
+        <v>169.201633460741</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1695,7 +1695,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>229.6914958404428</v>
+        <v>229.6914958404427</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1735,7 +1735,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>2024.464398023295</v>
+        <v>2024.464398023294</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -1791,7 +1791,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>686.704422031674</v>
+        <v>686.7044220316739</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -1799,7 +1799,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>581.1584043102545</v>
+        <v>581.1584043102544</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -1839,7 +1839,7 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>749.7223151908685</v>
+        <v>749.7223151908684</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -1847,7 +1847,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>38.98313727857751</v>
+        <v>38.9831372785775</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2023,7 +2023,7 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>668.9809509686291</v>
+        <v>668.980950968629</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2031,7 +2031,7 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>780.0041733315907</v>
+        <v>780.0041733315906</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2239,7 +2239,7 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>62.55421667679717</v>
+        <v>62.55421667679715</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -2247,7 +2247,7 @@
         <v>238</v>
       </c>
       <c r="B238">
-        <v>74.11877934740114</v>
+        <v>74.11877934740113</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -2335,7 +2335,7 @@
         <v>249</v>
       </c>
       <c r="B249">
-        <v>967.7841660751517</v>
+        <v>967.7841660751516</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2343,7 +2343,7 @@
         <v>250</v>
       </c>
       <c r="B250">
-        <v>762.3486947495152</v>
+        <v>762.3486947495151</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -2359,7 +2359,7 @@
         <v>252</v>
       </c>
       <c r="B252">
-        <v>495.7161806278872</v>
+        <v>495.7161806278871</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2367,7 +2367,7 @@
         <v>253</v>
       </c>
       <c r="B253">
-        <v>364.8341716141943</v>
+        <v>364.8341716141942</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -2527,7 +2527,7 @@
         <v>273</v>
       </c>
       <c r="B273">
-        <v>746.1087492841741</v>
+        <v>746.108749284174</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -2703,7 +2703,7 @@
         <v>295</v>
       </c>
       <c r="B295">
-        <v>57.0535165300858</v>
+        <v>57.05351653008579</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -2719,7 +2719,7 @@
         <v>297</v>
       </c>
       <c r="B297">
-        <v>43.97471441692638</v>
+        <v>43.97471441692637</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -2727,7 +2727,7 @@
         <v>298</v>
       </c>
       <c r="B298">
-        <v>28.48559790301811</v>
+        <v>28.4855979030181</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -2759,7 +2759,7 @@
         <v>302</v>
       </c>
       <c r="B302">
-        <v>4.174503874692203</v>
+        <v>4.174503874692202</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2783,7 +2783,7 @@
         <v>305</v>
       </c>
       <c r="B305">
-        <v>15.95033266493599</v>
+        <v>15.95033266493598</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -2799,7 +2799,7 @@
         <v>307</v>
       </c>
       <c r="B307">
-        <v>26.50964115795885</v>
+        <v>26.50964115795884</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -2951,7 +2951,7 @@
         <v>326</v>
       </c>
       <c r="B326">
-        <v>14.38134755235861</v>
+        <v>14.3813475523586</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -3079,7 +3079,7 @@
         <v>342</v>
       </c>
       <c r="B342">
-        <v>50.11104461654879</v>
+        <v>50.11104461654878</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -3263,7 +3263,7 @@
         <v>365</v>
       </c>
       <c r="B365">
-        <v>112.1999025831868</v>
+        <v>112.1999025831867</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -3439,7 +3439,7 @@
         <v>387</v>
       </c>
       <c r="B387">
-        <v>87.17881612195508</v>
+        <v>87.17881612195507</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -3487,7 +3487,7 @@
         <v>393</v>
       </c>
       <c r="B393">
-        <v>773.8851431153804</v>
+        <v>773.8851431153803</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3527,7 +3527,7 @@
         <v>398</v>
       </c>
       <c r="B398">
-        <v>269.9154958967124</v>
+        <v>269.9154958967123</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3551,7 +3551,7 @@
         <v>401</v>
       </c>
       <c r="B401">
-        <v>400.8385348558179</v>
+        <v>400.8385348558178</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3567,7 +3567,7 @@
         <v>403</v>
       </c>
       <c r="B403">
-        <v>681.2008409966527</v>
+        <v>681.2008409966525</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -3591,7 +3591,7 @@
         <v>406</v>
       </c>
       <c r="B406">
-        <v>58.44545742820786</v>
+        <v>58.44545742820785</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3679,7 +3679,7 @@
         <v>417</v>
       </c>
       <c r="B417">
-        <v>865.0243747182856</v>
+        <v>865.0243747182855</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3687,7 +3687,7 @@
         <v>418</v>
       </c>
       <c r="B418">
-        <v>705.177275740576</v>
+        <v>705.1772757405759</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -3759,7 +3759,7 @@
         <v>427</v>
       </c>
       <c r="B427">
-        <v>784.6490562233342</v>
+        <v>784.6490562233341</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>430</v>
       </c>
       <c r="B430">
-        <v>82.3662379818894</v>
+        <v>82.36623798188938</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3895,7 +3895,7 @@
         <v>444</v>
       </c>
       <c r="B444">
-        <v>754.4580501045972</v>
+        <v>754.4580501045971</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -3911,7 +3911,7 @@
         <v>446</v>
       </c>
       <c r="B446">
-        <v>600.1066192438651</v>
+        <v>600.106619243865</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -4039,7 +4039,7 @@
         <v>462</v>
       </c>
       <c r="B462">
-        <v>238.1316486828509</v>
+        <v>238.1316486828508</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -4103,7 +4103,7 @@
         <v>470</v>
       </c>
       <c r="B470">
-        <v>66.68388947470534</v>
+        <v>66.68388947470532</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -4239,7 +4239,7 @@
         <v>487</v>
       </c>
       <c r="B487">
-        <v>331.5451115457681</v>
+        <v>331.545111545768</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -4271,7 +4271,7 @@
         <v>491</v>
       </c>
       <c r="B491">
-        <v>88.91493964788101</v>
+        <v>88.914939647881</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4311,7 +4311,7 @@
         <v>496</v>
       </c>
       <c r="B496">
-        <v>45.57500830856396</v>
+        <v>45.57500830856394</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -4335,7 +4335,7 @@
         <v>499</v>
       </c>
       <c r="B499">
-        <v>95.44796201330426</v>
+        <v>95.44796201330425</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -4383,7 +4383,7 @@
         <v>505</v>
       </c>
       <c r="B505">
-        <v>180.3600201867332</v>
+        <v>180.3600201867331</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -4559,7 +4559,7 @@
         <v>527</v>
       </c>
       <c r="B527">
-        <v>66.00012543440455</v>
+        <v>66.00012543440454</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -4647,7 +4647,7 @@
         <v>538</v>
       </c>
       <c r="B538">
-        <v>675.6122693604194</v>
+        <v>675.6122693604193</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -4687,7 +4687,7 @@
         <v>543</v>
       </c>
       <c r="B543">
-        <v>336.3589791984039</v>
+        <v>336.3589791984038</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -4783,7 +4783,7 @@
         <v>555</v>
       </c>
       <c r="B555">
-        <v>133.0785764484597</v>
+        <v>133.0785764484596</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4831,7 +4831,7 @@
         <v>561</v>
       </c>
       <c r="B561">
-        <v>898.2504245133996</v>
+        <v>898.2504245133995</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4863,7 +4863,7 @@
         <v>565</v>
       </c>
       <c r="B565">
-        <v>408.0025684745829</v>
+        <v>408.0025684745828</v>
       </c>
     </row>
     <row r="566" spans="1:2">
@@ -4951,7 +4951,7 @@
         <v>576</v>
       </c>
       <c r="B576">
-        <v>44.34526171536824</v>
+        <v>44.34526171536823</v>
       </c>
     </row>
     <row r="577" spans="1:2">
@@ -5015,7 +5015,7 @@
         <v>584</v>
       </c>
       <c r="B584">
-        <v>856.4347556461602</v>
+        <v>856.4347556461601</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -5023,7 +5023,7 @@
         <v>585</v>
       </c>
       <c r="B585">
-        <v>739.4059215589505</v>
+        <v>739.4059215589504</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5119,7 +5119,7 @@
         <v>597</v>
       </c>
       <c r="B597">
-        <v>23.71850292279747</v>
+        <v>23.71850292279746</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -5175,7 +5175,7 @@
         <v>604</v>
       </c>
       <c r="B604">
-        <v>39.58297456553685</v>
+        <v>39.58297456553684</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -5303,7 +5303,7 @@
         <v>620</v>
       </c>
       <c r="B620">
-        <v>17.95282845790123</v>
+        <v>17.95282845790122</v>
       </c>
     </row>
     <row r="621" spans="1:2">
@@ -5407,7 +5407,7 @@
         <v>633</v>
       </c>
       <c r="B633">
-        <v>175.5826691855146</v>
+        <v>175.5826691855145</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -5463,7 +5463,7 @@
         <v>640</v>
       </c>
       <c r="B640">
-        <v>9.749389093419913</v>
+        <v>9.749389093419911</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5639,7 +5639,7 @@
         <v>662</v>
       </c>
       <c r="B662">
-        <v>38.96589004795229</v>
+        <v>38.96589004795228</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -5743,7 +5743,7 @@
         <v>675</v>
       </c>
       <c r="B675">
-        <v>194.0980181950224</v>
+        <v>194.0980181950223</v>
       </c>
     </row>
     <row r="676" spans="1:2">
@@ -5751,7 +5751,7 @@
         <v>676</v>
       </c>
       <c r="B676">
-        <v>208.0297361598668</v>
+        <v>208.0297361598667</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5759,7 +5759,7 @@
         <v>677</v>
       </c>
       <c r="B677">
-        <v>207.7398889026307</v>
+        <v>207.7398889026306</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -5791,7 +5791,7 @@
         <v>681</v>
       </c>
       <c r="B681">
-        <v>899.7486036630364</v>
+        <v>899.7486036630363</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5919,7 +5919,7 @@
         <v>697</v>
       </c>
       <c r="B697">
-        <v>49.17907871360571</v>
+        <v>49.1790787136057</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -5935,7 +5935,7 @@
         <v>699</v>
       </c>
       <c r="B699">
-        <v>70.17181582712561</v>
+        <v>70.1718158271256</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -5983,7 +5983,7 @@
         <v>705</v>
       </c>
       <c r="B705">
-        <v>746.1055255027488</v>
+        <v>746.1055255027487</v>
       </c>
     </row>
     <row r="706" spans="1:2">
@@ -6039,7 +6039,7 @@
         <v>712</v>
       </c>
       <c r="B712">
-        <v>102.0646268531615</v>
+        <v>102.0646268531614</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -6063,7 +6063,7 @@
         <v>715</v>
       </c>
       <c r="B715">
-        <v>352.5755170798871</v>
+        <v>352.575517079887</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6095,7 +6095,7 @@
         <v>719</v>
       </c>
       <c r="B719">
-        <v>19.42492428509717</v>
+        <v>19.42492428509716</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -6135,7 +6135,7 @@
         <v>724</v>
       </c>
       <c r="B724">
-        <v>40.68403073494597</v>
+        <v>40.68403073494596</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -6191,7 +6191,7 @@
         <v>731</v>
       </c>
       <c r="B731">
-        <v>286.57218837903</v>
+        <v>286.5721883790299</v>
       </c>
     </row>
     <row r="732" spans="1:2">
@@ -6223,7 +6223,7 @@
         <v>735</v>
       </c>
       <c r="B735">
-        <v>60.46843595606514</v>
+        <v>60.46843595606513</v>
       </c>
     </row>
     <row r="736" spans="1:2">
@@ -6351,7 +6351,7 @@
         <v>751</v>
       </c>
       <c r="B751">
-        <v>771.4045898441508</v>
+        <v>771.4045898441507</v>
       </c>
     </row>
     <row r="752" spans="1:2">
@@ -6439,7 +6439,7 @@
         <v>762</v>
       </c>
       <c r="B762">
-        <v>291.1483168051037</v>
+        <v>291.1483168051036</v>
       </c>
     </row>
     <row r="763" spans="1:2">
@@ -6615,7 +6615,7 @@
         <v>784</v>
       </c>
       <c r="B784">
-        <v>397.7363779115876</v>
+        <v>397.7363779115875</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -6671,7 +6671,7 @@
         <v>791</v>
       </c>
       <c r="B791">
-        <v>53.07348580451811</v>
+        <v>53.07348580451809</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -6679,7 +6679,7 @@
         <v>792</v>
       </c>
       <c r="B792">
-        <v>61.63354280097371</v>
+        <v>61.6335428009737</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -6743,7 +6743,7 @@
         <v>800</v>
       </c>
       <c r="B800">
-        <v>234.5151520657699</v>
+        <v>234.5151520657698</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -6815,7 +6815,7 @@
         <v>809</v>
       </c>
       <c r="B809">
-        <v>52.1427302849647</v>
+        <v>52.14273028496468</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -6823,7 +6823,7 @@
         <v>810</v>
       </c>
       <c r="B810">
-        <v>68.26837804522791</v>
+        <v>68.26837804522789</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -6879,7 +6879,7 @@
         <v>817</v>
       </c>
       <c r="B817">
-        <v>181.9030392052852</v>
+        <v>181.9030392052851</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -7071,7 +7071,7 @@
         <v>841</v>
       </c>
       <c r="B841">
-        <v>99.67814938534212</v>
+        <v>99.67814938534211</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -7151,7 +7151,7 @@
         <v>851</v>
       </c>
       <c r="B851">
-        <v>460.0091379549855</v>
+        <v>460.0091379549854</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -7159,7 +7159,7 @@
         <v>852</v>
       </c>
       <c r="B852">
-        <v>347.7928233936337</v>
+        <v>347.7928233936336</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -7279,7 +7279,7 @@
         <v>867</v>
       </c>
       <c r="B867">
-        <v>31.12634526933522</v>
+        <v>31.12634526933521</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -7287,7 +7287,7 @@
         <v>868</v>
       </c>
       <c r="B868">
-        <v>33.41955580981097</v>
+        <v>33.41955580981096</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -7375,7 +7375,7 @@
         <v>879</v>
       </c>
       <c r="B879">
-        <v>57.1195454350962</v>
+        <v>57.11954543509619</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -7503,7 +7503,7 @@
         <v>895</v>
       </c>
       <c r="B895">
-        <v>829.5050440456465</v>
+        <v>829.5050440456464</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -7551,7 +7551,7 @@
         <v>901</v>
       </c>
       <c r="B901">
-        <v>424.4354426046748</v>
+        <v>424.4354426046747</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -7631,7 +7631,7 @@
         <v>911</v>
       </c>
       <c r="B911">
-        <v>49.45776289497917</v>
+        <v>49.45776289497916</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -7687,7 +7687,7 @@
         <v>918</v>
       </c>
       <c r="B918">
-        <v>1268.495566714399</v>
+        <v>1268.495566714398</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -7775,7 +7775,7 @@
         <v>929</v>
       </c>
       <c r="B929">
-        <v>353.9988957083264</v>
+        <v>353.9988957083263</v>
       </c>
     </row>
     <row r="930" spans="1:2">
@@ -7831,7 +7831,7 @@
         <v>936</v>
       </c>
       <c r="B936">
-        <v>51.18230718416761</v>
+        <v>51.18230718416759</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -7863,7 +7863,7 @@
         <v>940</v>
       </c>
       <c r="B940">
-        <v>87.76041559817851</v>
+        <v>87.7604155981785</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -7911,7 +7911,7 @@
         <v>946</v>
       </c>
       <c r="B946">
-        <v>606.5283918430125</v>
+        <v>606.5283918430124</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -8023,7 +8023,7 @@
         <v>960</v>
       </c>
       <c r="B960">
-        <v>63.44079466798276</v>
+        <v>63.44079466798275</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -8111,7 +8111,7 @@
         <v>971</v>
       </c>
       <c r="B971">
-        <v>116.814892228987</v>
+        <v>116.8148922289869</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -8143,7 +8143,7 @@
         <v>975</v>
       </c>
       <c r="B975">
-        <v>93.17871296094947</v>
+        <v>93.17871296094945</v>
       </c>
     </row>
     <row r="976" spans="1:2">
@@ -8247,7 +8247,7 @@
         <v>988</v>
       </c>
       <c r="B988">
-        <v>327.3588848295294</v>
+        <v>327.3588848295293</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -8263,7 +8263,7 @@
         <v>990</v>
       </c>
       <c r="B990">
-        <v>382.6666651036212</v>
+        <v>382.6666651036211</v>
       </c>
     </row>
     <row r="991" spans="1:2">
@@ -8319,7 +8319,7 @@
         <v>997</v>
       </c>
       <c r="B997">
-        <v>81.01148779857346</v>
+        <v>81.01148779857344</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -8335,7 +8335,7 @@
         <v>999</v>
       </c>
       <c r="B999">
-        <v>75.37177526609386</v>
+        <v>75.37177526609385</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -8375,7 +8375,7 @@
         <v>1004</v>
       </c>
       <c r="B1004">
-        <v>190.5386704304804</v>
+        <v>190.5386704304803</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
@@ -8399,7 +8399,7 @@
         <v>1007</v>
       </c>
       <c r="B1007">
-        <v>238.7509077875423</v>
+        <v>238.7509077875422</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
@@ -8415,7 +8415,7 @@
         <v>1009</v>
       </c>
       <c r="B1009">
-        <v>265.6137991912412</v>
+        <v>265.6137991912411</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
@@ -8615,7 +8615,7 @@
         <v>1034</v>
       </c>
       <c r="B1034">
-        <v>77.13313220844854</v>
+        <v>77.13313220844853</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
@@ -8679,7 +8679,7 @@
         <v>1042</v>
       </c>
       <c r="B1042">
-        <v>445.4125883389379</v>
+        <v>445.4125883389378</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
@@ -8687,7 +8687,7 @@
         <v>1043</v>
       </c>
       <c r="B1043">
-        <v>429.6732375147342</v>
+        <v>429.6732375147341</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
@@ -8711,7 +8711,7 @@
         <v>1046</v>
       </c>
       <c r="B1046">
-        <v>168.0200765384325</v>
+        <v>168.0200765384324</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
@@ -8863,7 +8863,7 @@
         <v>1065</v>
       </c>
       <c r="B1065">
-        <v>533.4276826697131</v>
+        <v>533.427682669713</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
@@ -8999,7 +8999,7 @@
         <v>1082</v>
       </c>
       <c r="B1082">
-        <v>44.51754938686609</v>
+        <v>44.51754938686608</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
@@ -9079,7 +9079,7 @@
         <v>1092</v>
       </c>
       <c r="B1092">
-        <v>400.6748546807255</v>
+        <v>400.6748546807254</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
@@ -9135,7 +9135,7 @@
         <v>1099</v>
       </c>
       <c r="B1099">
-        <v>336.5467791199781</v>
+        <v>336.546779119978</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
@@ -9151,7 +9151,7 @@
         <v>1101</v>
       </c>
       <c r="B1101">
-        <v>18.79485085907914</v>
+        <v>18.79485085907913</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
@@ -9247,7 +9247,7 @@
         <v>1113</v>
       </c>
       <c r="B1113">
-        <v>641.4627527224835</v>
+        <v>641.4627527224834</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
@@ -9351,7 +9351,7 @@
         <v>1126</v>
       </c>
       <c r="B1126">
-        <v>39.82864722511549</v>
+        <v>39.82864722511548</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
@@ -9383,7 +9383,7 @@
         <v>1130</v>
       </c>
       <c r="B1130">
-        <v>52.79651315801043</v>
+        <v>52.79651315801042</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
@@ -9407,7 +9407,7 @@
         <v>1133</v>
       </c>
       <c r="B1133">
-        <v>72.57652231354967</v>
+        <v>72.57652231354966</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
@@ -9519,7 +9519,7 @@
         <v>1147</v>
       </c>
       <c r="B1147">
-        <v>26.69457484477493</v>
+        <v>26.69457484477492</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
@@ -9551,7 +9551,7 @@
         <v>1151</v>
       </c>
       <c r="B1151">
-        <v>35.63471274056004</v>
+        <v>35.63471274056003</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
@@ -9591,7 +9591,7 @@
         <v>1156</v>
       </c>
       <c r="B1156">
-        <v>54.62653664472347</v>
+        <v>54.62653664472346</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
@@ -9615,7 +9615,7 @@
         <v>1159</v>
       </c>
       <c r="B1159">
-        <v>94.83016826380614</v>
+        <v>94.83016826380613</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
@@ -9631,7 +9631,7 @@
         <v>1161</v>
       </c>
       <c r="B1161">
-        <v>46.65793510352149</v>
+        <v>46.65793510352148</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
@@ -9895,7 +9895,7 @@
         <v>1194</v>
       </c>
       <c r="B1194">
-        <v>2.00088683296299</v>
+        <v>2.000886832962989</v>
       </c>
     </row>
     <row r="1195" spans="1:2">
@@ -10031,7 +10031,7 @@
         <v>1211</v>
       </c>
       <c r="B1211">
-        <v>604.6216716654818</v>
+        <v>604.6216716654817</v>
       </c>
     </row>
     <row r="1212" spans="1:2">
@@ -10039,7 +10039,7 @@
         <v>1212</v>
       </c>
       <c r="B1212">
-        <v>509.5131445291551</v>
+        <v>509.513144529155</v>
       </c>
     </row>
     <row r="1213" spans="1:2">
@@ -10143,7 +10143,7 @@
         <v>1225</v>
       </c>
       <c r="B1225">
-        <v>41.83837308060451</v>
+        <v>41.8383730806045</v>
       </c>
     </row>
     <row r="1226" spans="1:2">
@@ -10199,7 +10199,7 @@
         <v>1232</v>
       </c>
       <c r="B1232">
-        <v>798.3132003298808</v>
+        <v>798.3132003298807</v>
       </c>
     </row>
     <row r="1233" spans="1:2">
@@ -10247,7 +10247,7 @@
         <v>1238</v>
       </c>
       <c r="B1238">
-        <v>279.5344097637203</v>
+        <v>279.5344097637202</v>
       </c>
     </row>
     <row r="1239" spans="1:2">
@@ -10287,7 +10287,7 @@
         <v>1243</v>
       </c>
       <c r="B1243">
-        <v>578.1514954535891</v>
+        <v>578.151495453589</v>
       </c>
     </row>
     <row r="1244" spans="1:2">
@@ -10447,7 +10447,7 @@
         <v>1263</v>
       </c>
       <c r="B1263">
-        <v>320.9359399462274</v>
+        <v>320.9359399462273</v>
       </c>
     </row>
     <row r="1264" spans="1:2">
@@ -10519,7 +10519,7 @@
         <v>1272</v>
       </c>
       <c r="B1272">
-        <v>48.34438601910472</v>
+        <v>48.34438601910471</v>
       </c>
     </row>
     <row r="1273" spans="1:2">
@@ -10655,7 +10655,7 @@
         <v>1289</v>
       </c>
       <c r="B1289">
-        <v>352.1653846762533</v>
+        <v>352.1653846762532</v>
       </c>
     </row>
     <row r="1290" spans="1:2">
@@ -10727,7 +10727,7 @@
         <v>1298</v>
       </c>
       <c r="B1298">
-        <v>50.69135458020212</v>
+        <v>50.69135458020211</v>
       </c>
     </row>
     <row r="1299" spans="1:2">
@@ -10743,7 +10743,7 @@
         <v>1300</v>
       </c>
       <c r="B1300">
-        <v>67.68247042473615</v>
+        <v>67.68247042473612</v>
       </c>
     </row>
     <row r="1301" spans="1:2">
@@ -10791,7 +10791,7 @@
         <v>1306</v>
       </c>
       <c r="B1306">
-        <v>28.31895624508008</v>
+        <v>28.31895624508007</v>
       </c>
     </row>
     <row r="1307" spans="1:2">
@@ -10799,7 +10799,7 @@
         <v>1307</v>
       </c>
       <c r="B1307">
-        <v>17.06098398015089</v>
+        <v>17.06098398015088</v>
       </c>
     </row>
     <row r="1308" spans="1:2">
@@ -10967,7 +10967,7 @@
         <v>1328</v>
       </c>
       <c r="B1328">
-        <v>93.80538676291903</v>
+        <v>93.80538676291901</v>
       </c>
     </row>
     <row r="1329" spans="1:2">
@@ -10991,7 +10991,7 @@
         <v>1331</v>
       </c>
       <c r="B1331">
-        <v>27.93658646093862</v>
+        <v>27.93658646093861</v>
       </c>
     </row>
     <row r="1332" spans="1:2">
@@ -11023,7 +11023,7 @@
         <v>1335</v>
       </c>
       <c r="B1335">
-        <v>3.395960660488339</v>
+        <v>3.395960660488338</v>
       </c>
     </row>
     <row r="1336" spans="1:2">
@@ -11103,7 +11103,7 @@
         <v>1345</v>
       </c>
       <c r="B1345">
-        <v>34.97199120083514</v>
+        <v>34.97199120083513</v>
       </c>
     </row>
     <row r="1346" spans="1:2">
@@ -11127,7 +11127,7 @@
         <v>1348</v>
       </c>
       <c r="B1348">
-        <v>49.50816818291854</v>
+        <v>49.50816818291852</v>
       </c>
     </row>
     <row r="1349" spans="1:2">
@@ -11303,7 +11303,7 @@
         <v>1370</v>
       </c>
       <c r="B1370">
-        <v>28.25237050509622</v>
+        <v>28.25237050509621</v>
       </c>
     </row>
     <row r="1371" spans="1:2">
@@ -11311,7 +11311,7 @@
         <v>1371</v>
       </c>
       <c r="B1371">
-        <v>30.33050793313995</v>
+        <v>30.33050793313994</v>
       </c>
     </row>
     <row r="1372" spans="1:2">
@@ -11415,7 +11415,7 @@
         <v>1384</v>
       </c>
       <c r="B1384">
-        <v>87.3594944172898</v>
+        <v>87.35949441728978</v>
       </c>
     </row>
     <row r="1385" spans="1:2">
@@ -11495,7 +11495,7 @@
         <v>1394</v>
       </c>
       <c r="B1394">
-        <v>36.03044656406446</v>
+        <v>36.03044656406445</v>
       </c>
     </row>
     <row r="1395" spans="1:2">
@@ -11535,7 +11535,7 @@
         <v>1399</v>
       </c>
       <c r="B1399">
-        <v>688.0188456400701</v>
+        <v>688.01884564007</v>
       </c>
     </row>
     <row r="1400" spans="1:2">
@@ -11575,7 +11575,7 @@
         <v>1404</v>
       </c>
       <c r="B1404">
-        <v>275.1382269553847</v>
+        <v>275.1382269553846</v>
       </c>
     </row>
     <row r="1405" spans="1:2">
@@ -11607,7 +11607,7 @@
         <v>1408</v>
       </c>
       <c r="B1408">
-        <v>95.33864651588358</v>
+        <v>95.33864651588355</v>
       </c>
     </row>
     <row r="1409" spans="1:2">
@@ -11695,7 +11695,7 @@
         <v>1419</v>
       </c>
       <c r="B1419">
-        <v>96.93292365909743</v>
+        <v>96.93292365909741</v>
       </c>
     </row>
     <row r="1420" spans="1:2">
@@ -11743,7 +11743,7 @@
         <v>1425</v>
       </c>
       <c r="B1425">
-        <v>970.8133483307554</v>
+        <v>970.8133483307553</v>
       </c>
     </row>
     <row r="1426" spans="1:2">
@@ -11815,7 +11815,7 @@
         <v>1434</v>
       </c>
       <c r="B1434">
-        <v>473.7384903676342</v>
+        <v>473.7384903676341</v>
       </c>
     </row>
     <row r="1435" spans="1:2">
@@ -11863,7 +11863,7 @@
         <v>1440</v>
       </c>
       <c r="B1440">
-        <v>98.70192975556118</v>
+        <v>98.70192975556117</v>
       </c>
     </row>
     <row r="1441" spans="1:2">
@@ -12063,7 +12063,7 @@
         <v>1465</v>
       </c>
       <c r="B1465">
-        <v>77.99933297031602</v>
+        <v>77.999332970316</v>
       </c>
     </row>
     <row r="1466" spans="1:2">
@@ -12135,7 +12135,7 @@
         <v>1474</v>
       </c>
       <c r="B1474">
-        <v>58.7464999991208</v>
+        <v>58.74649999912079</v>
       </c>
     </row>
     <row r="1475" spans="1:2">
@@ -12207,7 +12207,7 @@
         <v>1483</v>
       </c>
       <c r="B1483">
-        <v>50.14905593026317</v>
+        <v>50.14905593026316</v>
       </c>
     </row>
     <row r="1484" spans="1:2">
@@ -12351,7 +12351,7 @@
         <v>1501</v>
       </c>
       <c r="B1501">
-        <v>22.97681046099489</v>
+        <v>22.97681046099488</v>
       </c>
     </row>
     <row r="1502" spans="1:2">
@@ -12375,7 +12375,7 @@
         <v>1504</v>
       </c>
       <c r="B1504">
-        <v>18.3144195054016</v>
+        <v>18.31441950540159</v>
       </c>
     </row>
     <row r="1505" spans="1:2">
@@ -12399,7 +12399,7 @@
         <v>1507</v>
       </c>
       <c r="B1507">
-        <v>21.65880259379593</v>
+        <v>21.65880259379592</v>
       </c>
     </row>
     <row r="1508" spans="1:2">
@@ -12415,7 +12415,7 @@
         <v>1509</v>
       </c>
       <c r="B1509">
-        <v>33.56047315733051</v>
+        <v>33.5604731573305</v>
       </c>
     </row>
     <row r="1510" spans="1:2">
@@ -12615,7 +12615,7 @@
         <v>1534</v>
       </c>
       <c r="B1534">
-        <v>28.84425677477667</v>
+        <v>28.84425677477666</v>
       </c>
     </row>
     <row r="1535" spans="1:2">
@@ -12623,7 +12623,7 @@
         <v>1535</v>
       </c>
       <c r="B1535">
-        <v>31.29090172683318</v>
+        <v>31.29090172683317</v>
       </c>
     </row>
     <row r="1536" spans="1:2">
@@ -12759,7 +12759,7 @@
         <v>1552</v>
       </c>
       <c r="B1552">
-        <v>85.89586834311118</v>
+        <v>85.89586834311116</v>
       </c>
     </row>
     <row r="1553" spans="1:2">
@@ -12767,7 +12767,7 @@
         <v>1553</v>
       </c>
       <c r="B1553">
-        <v>126.3811705374513</v>
+        <v>126.3811705374512</v>
       </c>
     </row>
     <row r="1554" spans="1:2">
@@ -12839,7 +12839,7 @@
         <v>1562</v>
       </c>
       <c r="B1562">
-        <v>47.72141370435346</v>
+        <v>47.72141370435345</v>
       </c>
     </row>
     <row r="1563" spans="1:2">
@@ -12895,7 +12895,7 @@
         <v>1569</v>
       </c>
       <c r="B1569">
-        <v>401.4495879714269</v>
+        <v>401.4495879714268</v>
       </c>
     </row>
     <row r="1570" spans="1:2">
@@ -12935,7 +12935,7 @@
         <v>1574</v>
       </c>
       <c r="B1574">
-        <v>84.5599333204773</v>
+        <v>84.55993332047728</v>
       </c>
     </row>
     <row r="1575" spans="1:2">
@@ -13071,7 +13071,7 @@
         <v>1591</v>
       </c>
       <c r="B1591">
-        <v>734.839581705568</v>
+        <v>734.8395817055679</v>
       </c>
     </row>
     <row r="1592" spans="1:2">
@@ -13135,7 +13135,7 @@
         <v>1599</v>
       </c>
       <c r="B1599">
-        <v>190.2555051929258</v>
+        <v>190.2555051929257</v>
       </c>
     </row>
     <row r="1600" spans="1:2">
@@ -13199,7 +13199,7 @@
         <v>1607</v>
       </c>
       <c r="B1607">
-        <v>37.33197504675949</v>
+        <v>37.33197504675948</v>
       </c>
     </row>
     <row r="1608" spans="1:2">
@@ -13247,7 +13247,7 @@
         <v>1613</v>
       </c>
       <c r="B1613">
-        <v>59.44981187770029</v>
+        <v>59.44981187770028</v>
       </c>
     </row>
     <row r="1614" spans="1:2">
@@ -13447,7 +13447,7 @@
         <v>1638</v>
       </c>
       <c r="B1638">
-        <v>49.28484805145858</v>
+        <v>49.28484805145857</v>
       </c>
     </row>
     <row r="1639" spans="1:2">
@@ -13519,7 +13519,7 @@
         <v>1647</v>
       </c>
       <c r="B1647">
-        <v>0.5045833379736249</v>
+        <v>0.5045833379736248</v>
       </c>
     </row>
     <row r="1648" spans="1:2">
@@ -13855,7 +13855,7 @@
         <v>1689</v>
       </c>
       <c r="B1689">
-        <v>266.9606364565133</v>
+        <v>266.9606364565132</v>
       </c>
     </row>
     <row r="1690" spans="1:2">
@@ -13879,7 +13879,7 @@
         <v>1692</v>
       </c>
       <c r="B1692">
-        <v>99.6570951619247</v>
+        <v>99.65709516192467</v>
       </c>
     </row>
     <row r="1693" spans="1:2">
@@ -13943,7 +13943,7 @@
         <v>1700</v>
       </c>
       <c r="B1700">
-        <v>10.78343163912874</v>
+        <v>10.78343163912873</v>
       </c>
     </row>
     <row r="1701" spans="1:2">
@@ -13991,7 +13991,7 @@
         <v>1706</v>
       </c>
       <c r="B1706">
-        <v>25.24203271727848</v>
+        <v>25.24203271727847</v>
       </c>
     </row>
     <row r="1707" spans="1:2">
@@ -14031,7 +14031,7 @@
         <v>1711</v>
       </c>
       <c r="B1711">
-        <v>461.9705158812266</v>
+        <v>461.9705158812265</v>
       </c>
     </row>
     <row r="1712" spans="1:2">
@@ -14071,7 +14071,7 @@
         <v>1716</v>
       </c>
       <c r="B1716">
-        <v>238.3209139596184</v>
+        <v>238.3209139596183</v>
       </c>
     </row>
     <row r="1717" spans="1:2">
@@ -14079,7 +14079,7 @@
         <v>1717</v>
       </c>
       <c r="B1717">
-        <v>41.77565587833098</v>
+        <v>41.77565587833097</v>
       </c>
     </row>
     <row r="1718" spans="1:2">
@@ -14167,7 +14167,7 @@
         <v>1728</v>
       </c>
       <c r="B1728">
-        <v>20.82366443131617</v>
+        <v>20.82366443131616</v>
       </c>
     </row>
     <row r="1729" spans="1:2">
@@ -14207,7 +14207,7 @@
         <v>1733</v>
       </c>
       <c r="B1733">
-        <v>588.0757307286743</v>
+        <v>588.0757307286742</v>
       </c>
     </row>
     <row r="1734" spans="1:2">
@@ -14223,7 +14223,7 @@
         <v>1735</v>
       </c>
       <c r="B1735">
-        <v>449.9669122797353</v>
+        <v>449.9669122797351</v>
       </c>
     </row>
     <row r="1736" spans="1:2">
@@ -14335,7 +14335,7 @@
         <v>1749</v>
       </c>
       <c r="B1749">
-        <v>7.975840395856914</v>
+        <v>7.975840395856913</v>
       </c>
     </row>
     <row r="1750" spans="1:2">
@@ -14383,7 +14383,7 @@
         <v>1755</v>
       </c>
       <c r="B1755">
-        <v>37.01633753812122</v>
+        <v>37.01633753812121</v>
       </c>
     </row>
     <row r="1756" spans="1:2">
@@ -14479,7 +14479,7 @@
         <v>1767</v>
       </c>
       <c r="B1767">
-        <v>10.49683747042181</v>
+        <v>10.4968374704218</v>
       </c>
     </row>
     <row r="1768" spans="1:2">
@@ -14711,7 +14711,7 @@
         <v>1796</v>
       </c>
       <c r="B1796">
-        <v>14.25951792158709</v>
+        <v>14.25951792158708</v>
       </c>
     </row>
     <row r="1797" spans="1:2">
@@ -14775,7 +14775,7 @@
         <v>1804</v>
       </c>
       <c r="B1804">
-        <v>37.37560658378227</v>
+        <v>37.37560658378226</v>
       </c>
     </row>
     <row r="1805" spans="1:2">
@@ -14807,7 +14807,7 @@
         <v>1808</v>
       </c>
       <c r="B1808">
-        <v>45.90222505393973</v>
+        <v>45.90222505393972</v>
       </c>
     </row>
     <row r="1809" spans="1:2">
@@ -14823,7 +14823,7 @@
         <v>1810</v>
       </c>
       <c r="B1810">
-        <v>32.25975648141256</v>
+        <v>32.25975648141255</v>
       </c>
     </row>
     <row r="1811" spans="1:2">
@@ -14943,7 +14943,7 @@
         <v>1825</v>
       </c>
       <c r="B1825">
-        <v>45.91148316805104</v>
+        <v>45.91148316805103</v>
       </c>
     </row>
     <row r="1826" spans="1:2">
@@ -15175,7 +15175,7 @@
         <v>1854</v>
       </c>
       <c r="B1854">
-        <v>636.1487886494759</v>
+        <v>636.1487886494758</v>
       </c>
     </row>
     <row r="1855" spans="1:2">
@@ -15207,7 +15207,7 @@
         <v>1858</v>
       </c>
       <c r="B1858">
-        <v>222.974483476948</v>
+        <v>222.9744834769479</v>
       </c>
     </row>
     <row r="1859" spans="1:2">
@@ -15247,7 +15247,7 @@
         <v>1863</v>
       </c>
       <c r="B1863">
-        <v>36.10928267346436</v>
+        <v>36.10928267346435</v>
       </c>
     </row>
     <row r="1864" spans="1:2">
@@ -15359,7 +15359,7 @@
         <v>1877</v>
       </c>
       <c r="B1877">
-        <v>543.721333989031</v>
+        <v>543.7213339890309</v>
       </c>
     </row>
     <row r="1878" spans="1:2">
@@ -15375,7 +15375,7 @@
         <v>1879</v>
       </c>
       <c r="B1879">
-        <v>434.042897394071</v>
+        <v>434.0428973940709</v>
       </c>
     </row>
     <row r="1880" spans="1:2">
@@ -15479,7 +15479,7 @@
         <v>1892</v>
       </c>
       <c r="B1892">
-        <v>2.296460698294503</v>
+        <v>2.296460698294502</v>
       </c>
     </row>
     <row r="1893" spans="1:2">
@@ -15567,7 +15567,7 @@
         <v>1903</v>
       </c>
       <c r="B1903">
-        <v>537.9623708509201</v>
+        <v>537.96237085092</v>
       </c>
     </row>
     <row r="1904" spans="1:2">
@@ -15639,7 +15639,7 @@
         <v>1912</v>
       </c>
       <c r="B1912">
-        <v>56.39821554905981</v>
+        <v>56.3982155490598</v>
       </c>
     </row>
     <row r="1913" spans="1:2">
@@ -15703,7 +15703,7 @@
         <v>1920</v>
       </c>
       <c r="B1920">
-        <v>33.95140061580087</v>
+        <v>33.95140061580086</v>
       </c>
     </row>
     <row r="1921" spans="1:2">
@@ -15711,7 +15711,7 @@
         <v>1921</v>
       </c>
       <c r="B1921">
-        <v>37.46444315623442</v>
+        <v>37.46444315623441</v>
       </c>
     </row>
     <row r="1922" spans="1:2">
@@ -15743,7 +15743,7 @@
         <v>1925</v>
       </c>
       <c r="B1925">
-        <v>788.5536416714194</v>
+        <v>788.5536416714193</v>
       </c>
     </row>
     <row r="1926" spans="1:2">
@@ -15751,7 +15751,7 @@
         <v>1926</v>
       </c>
       <c r="B1926">
-        <v>631.9605104359667</v>
+        <v>631.9605104359666</v>
       </c>
     </row>
     <row r="1927" spans="1:2">
@@ -15967,7 +15967,7 @@
         <v>1953</v>
       </c>
       <c r="B1953">
-        <v>447.2319733469475</v>
+        <v>447.2319733469474</v>
       </c>
     </row>
     <row r="1954" spans="1:2">
@@ -15975,7 +15975,7 @@
         <v>1954</v>
       </c>
       <c r="B1954">
-        <v>358.0903139435581</v>
+        <v>358.090313943558</v>
       </c>
     </row>
     <row r="1955" spans="1:2">
@@ -16119,7 +16119,7 @@
         <v>1972</v>
       </c>
       <c r="B1972">
-        <v>41.3573385867294</v>
+        <v>41.35733858672939</v>
       </c>
     </row>
     <row r="1973" spans="1:2">
@@ -16135,7 +16135,7 @@
         <v>1974</v>
       </c>
       <c r="B1974">
-        <v>57.09917406719886</v>
+        <v>57.09917406719885</v>
       </c>
     </row>
     <row r="1975" spans="1:2">
@@ -16263,7 +16263,7 @@
         <v>1990</v>
       </c>
       <c r="B1990">
-        <v>5.089207893458127</v>
+        <v>5.089207893458126</v>
       </c>
     </row>
     <row r="1991" spans="1:2">
@@ -16271,7 +16271,7 @@
         <v>1991</v>
       </c>
       <c r="B1991">
-        <v>8.846994058277764</v>
+        <v>8.846994058277762</v>
       </c>
     </row>
     <row r="1992" spans="1:2">
@@ -16327,7 +16327,7 @@
         <v>1998</v>
       </c>
       <c r="B1998">
-        <v>46.60791725549523</v>
+        <v>46.60791725549522</v>
       </c>
     </row>
     <row r="1999" spans="1:2">
@@ -16431,7 +16431,7 @@
         <v>2011</v>
       </c>
       <c r="B2011">
-        <v>4.435952548281989</v>
+        <v>4.435952548281988</v>
       </c>
     </row>
     <row r="2012" spans="1:2">
@@ -16439,7 +16439,7 @@
         <v>2012</v>
       </c>
       <c r="B2012">
-        <v>7.889618896282746</v>
+        <v>7.889618896282745</v>
       </c>
     </row>
     <row r="2013" spans="1:2">
@@ -16519,7 +16519,7 @@
         <v>2022</v>
       </c>
       <c r="B2022">
-        <v>559.4446831345238</v>
+        <v>559.4446831345236</v>
       </c>
     </row>
     <row r="2023" spans="1:2">
@@ -16727,7 +16727,7 @@
         <v>2048</v>
       </c>
       <c r="B2048">
-        <v>308.5104898916869</v>
+        <v>308.5104898916868</v>
       </c>
     </row>
     <row r="2049" spans="1:2">
@@ -16775,7 +16775,7 @@
         <v>2054</v>
       </c>
       <c r="B2054">
-        <v>86.63824659114422</v>
+        <v>86.63824659114421</v>
       </c>
     </row>
     <row r="2055" spans="1:2">
@@ -16783,7 +16783,7 @@
         <v>2055</v>
       </c>
       <c r="B2055">
-        <v>86.31762687484871</v>
+        <v>86.3176268748487</v>
       </c>
     </row>
     <row r="2056" spans="1:2">
@@ -16991,7 +16991,7 @@
         <v>2081</v>
       </c>
       <c r="B2081">
-        <v>79.24728806714376</v>
+        <v>79.24728806714374</v>
       </c>
     </row>
     <row r="2082" spans="1:2">
@@ -17087,7 +17087,7 @@
         <v>2093</v>
       </c>
       <c r="B2093">
-        <v>760.5923200148178</v>
+        <v>760.5923200148177</v>
       </c>
     </row>
     <row r="2094" spans="1:2">
@@ -17159,7 +17159,7 @@
         <v>2102</v>
       </c>
       <c r="B2102">
-        <v>146.9623186842752</v>
+        <v>146.9623186842751</v>
       </c>
     </row>
     <row r="2103" spans="1:2">
@@ -17279,7 +17279,7 @@
         <v>2117</v>
       </c>
       <c r="B2117">
-        <v>855.173964037839</v>
+        <v>855.1739640378389</v>
       </c>
     </row>
     <row r="2118" spans="1:2">
@@ -17295,7 +17295,7 @@
         <v>2119</v>
       </c>
       <c r="B2119">
-        <v>608.0300878451133</v>
+        <v>608.0300878451131</v>
       </c>
     </row>
     <row r="2120" spans="1:2">
@@ -17327,7 +17327,7 @@
         <v>2123</v>
       </c>
       <c r="B2123">
-        <v>211.0382862143487</v>
+        <v>211.0382862143486</v>
       </c>
     </row>
     <row r="2124" spans="1:2">
@@ -17343,7 +17343,7 @@
         <v>2125</v>
       </c>
       <c r="B2125">
-        <v>40.45820777681586</v>
+        <v>40.45820777681585</v>
       </c>
     </row>
     <row r="2126" spans="1:2">
@@ -17479,7 +17479,7 @@
         <v>2142</v>
       </c>
       <c r="B2142">
-        <v>58.12205353704506</v>
+        <v>58.12205353704505</v>
       </c>
     </row>
     <row r="2143" spans="1:2">
@@ -17687,7 +17687,7 @@
         <v>2168</v>
       </c>
       <c r="B2168">
-        <v>40.67293506542225</v>
+        <v>40.67293506542224</v>
       </c>
     </row>
     <row r="2169" spans="1:2">
@@ -17703,7 +17703,7 @@
         <v>2170</v>
       </c>
       <c r="B2170">
-        <v>13.59755836656271</v>
+        <v>13.5975583665627</v>
       </c>
     </row>
     <row r="2171" spans="1:2">
@@ -17719,7 +17719,7 @@
         <v>2172</v>
       </c>
       <c r="B2172">
-        <v>1.658515384178033</v>
+        <v>1.658515384178032</v>
       </c>
     </row>
     <row r="2173" spans="1:2">
@@ -17871,7 +17871,7 @@
         <v>2191</v>
       </c>
       <c r="B2191">
-        <v>402.2484996228177</v>
+        <v>402.2484996228176</v>
       </c>
     </row>
     <row r="2192" spans="1:2">
@@ -17967,7 +17967,7 @@
         <v>2203</v>
       </c>
       <c r="B2203">
-        <v>8.303230053145503</v>
+        <v>8.303230053145501</v>
       </c>
     </row>
     <row r="2204" spans="1:2">
@@ -18007,7 +18007,7 @@
         <v>2208</v>
       </c>
       <c r="B2208">
-        <v>27.88213386195534</v>
+        <v>27.88213386195533</v>
       </c>
     </row>
     <row r="2209" spans="1:2">
@@ -18023,7 +18023,7 @@
         <v>2210</v>
       </c>
       <c r="B2210">
-        <v>33.75533609093643</v>
+        <v>33.75533609093642</v>
       </c>
     </row>
     <row r="2211" spans="1:2">
@@ -18055,7 +18055,7 @@
         <v>2214</v>
       </c>
       <c r="B2214">
-        <v>534.2708480479417</v>
+        <v>534.2708480479416</v>
       </c>
     </row>
     <row r="2215" spans="1:2">
@@ -18103,7 +18103,7 @@
         <v>2220</v>
       </c>
       <c r="B2220">
-        <v>77.5611917675173</v>
+        <v>77.56119176751729</v>
       </c>
     </row>
     <row r="2221" spans="1:2">
@@ -18135,7 +18135,7 @@
         <v>2224</v>
       </c>
       <c r="B2224">
-        <v>47.84282131282931</v>
+        <v>47.8428213128293</v>
       </c>
     </row>
     <row r="2225" spans="1:2">
@@ -18143,7 +18143,7 @@
         <v>2225</v>
       </c>
       <c r="B2225">
-        <v>99.51215394904433</v>
+        <v>99.51215394904432</v>
       </c>
     </row>
     <row r="2226" spans="1:2">
@@ -18223,7 +18223,7 @@
         <v>2235</v>
       </c>
       <c r="B2235">
-        <v>47.55591355811101</v>
+        <v>47.555913558111</v>
       </c>
     </row>
     <row r="2236" spans="1:2">
@@ -18247,7 +18247,7 @@
         <v>2238</v>
       </c>
       <c r="B2238">
-        <v>670.187524434798</v>
+        <v>670.1875244347979</v>
       </c>
     </row>
     <row r="2239" spans="1:2">
@@ -18255,7 +18255,7 @@
         <v>2239</v>
       </c>
       <c r="B2239">
-        <v>568.2580033304594</v>
+        <v>568.2580033304592</v>
       </c>
     </row>
     <row r="2240" spans="1:2">
@@ -18335,7 +18335,7 @@
         <v>2249</v>
       </c>
       <c r="B2249">
-        <v>72.2584142160555</v>
+        <v>72.25841421605548</v>
       </c>
     </row>
     <row r="2250" spans="1:2">
@@ -18367,7 +18367,7 @@
         <v>2253</v>
       </c>
       <c r="B2253">
-        <v>27.772525293496</v>
+        <v>27.77252529349599</v>
       </c>
     </row>
     <row r="2254" spans="1:2">
@@ -18415,7 +18415,7 @@
         <v>2259</v>
       </c>
       <c r="B2259">
-        <v>51.88875199215039</v>
+        <v>51.88875199215038</v>
       </c>
     </row>
     <row r="2260" spans="1:2">
@@ -18431,7 +18431,7 @@
         <v>2261</v>
       </c>
       <c r="B2261">
-        <v>887.6002229684464</v>
+        <v>887.6002229684461</v>
       </c>
     </row>
     <row r="2262" spans="1:2">
@@ -18439,7 +18439,7 @@
         <v>2262</v>
       </c>
       <c r="B2262">
-        <v>693.4854997242203</v>
+        <v>693.4854997242201</v>
       </c>
     </row>
     <row r="2263" spans="1:2">
@@ -18559,7 +18559,7 @@
         <v>2277</v>
       </c>
       <c r="B2277">
-        <v>14.95682184387403</v>
+        <v>14.95682184387402</v>
       </c>
     </row>
     <row r="2278" spans="1:2">
@@ -18591,7 +18591,7 @@
         <v>2281</v>
       </c>
       <c r="B2281">
-        <v>24.00990345653845</v>
+        <v>24.00990345653844</v>
       </c>
     </row>
     <row r="2282" spans="1:2">
@@ -18663,7 +18663,7 @@
         <v>2290</v>
       </c>
       <c r="B2290">
-        <v>270.7698272815141</v>
+        <v>270.769827281514</v>
       </c>
     </row>
     <row r="2291" spans="1:2">
@@ -19239,7 +19239,7 @@
         <v>2362</v>
       </c>
       <c r="B2362">
-        <v>48.09432022465654</v>
+        <v>48.09432022465653</v>
       </c>
     </row>
     <row r="2363" spans="1:2">
@@ -19383,7 +19383,7 @@
         <v>2380</v>
       </c>
       <c r="B2380">
-        <v>4.18915742662527</v>
+        <v>4.189157426625269</v>
       </c>
     </row>
     <row r="2381" spans="1:2">
@@ -19415,7 +19415,7 @@
         <v>2384</v>
       </c>
       <c r="B2384">
-        <v>74.03398100079072</v>
+        <v>74.0339810007907</v>
       </c>
     </row>
     <row r="2385" spans="1:2">
@@ -19439,7 +19439,7 @@
         <v>2387</v>
       </c>
       <c r="B2387">
-        <v>5.942337687001303</v>
+        <v>5.942337687001302</v>
       </c>
     </row>
     <row r="2388" spans="1:2">
@@ -19599,7 +19599,7 @@
         <v>2407</v>
       </c>
       <c r="B2407">
-        <v>364.9924299750714</v>
+        <v>364.9924299750713</v>
       </c>
     </row>
     <row r="2408" spans="1:2">
@@ -19719,7 +19719,7 @@
         <v>2422</v>
       </c>
       <c r="B2422">
-        <v>3.671740507868665</v>
+        <v>3.671740507868664</v>
       </c>
     </row>
     <row r="2423" spans="1:2">
@@ -19767,7 +19767,7 @@
         <v>2428</v>
       </c>
       <c r="B2428">
-        <v>35.61750947059062</v>
+        <v>35.61750947059061</v>
       </c>
     </row>
     <row r="2429" spans="1:2">
@@ -19967,7 +19967,7 @@
         <v>2453</v>
       </c>
       <c r="B2453">
-        <v>419.5566597169755</v>
+        <v>419.5566597169754</v>
       </c>
     </row>
     <row r="2454" spans="1:2">
@@ -19991,7 +19991,7 @@
         <v>2456</v>
       </c>
       <c r="B2456">
-        <v>162.3202961658689</v>
+        <v>162.3202961658688</v>
       </c>
     </row>
     <row r="2457" spans="1:2">
@@ -20567,7 +20567,7 @@
         <v>2528</v>
       </c>
       <c r="B2528">
-        <v>36.01989600667265</v>
+        <v>36.01989600667264</v>
       </c>
     </row>
     <row r="2529" spans="1:2">
@@ -20623,7 +20623,7 @@
         <v>2535</v>
       </c>
       <c r="B2535">
-        <v>0.1948878446442147</v>
+        <v>0.1948878446442146</v>
       </c>
     </row>
     <row r="2536" spans="1:2">
@@ -20831,7 +20831,7 @@
         <v>2561</v>
       </c>
       <c r="B2561">
-        <v>1.170004061964596</v>
+        <v>1.170004061964595</v>
       </c>
     </row>
     <row r="2562" spans="1:2">
@@ -20839,7 +20839,7 @@
         <v>2562</v>
       </c>
       <c r="B2562">
-        <v>5.75858214576064</v>
+        <v>5.758582145760639</v>
       </c>
     </row>
     <row r="2563" spans="1:2">
@@ -20951,7 +20951,7 @@
         <v>2576</v>
       </c>
       <c r="B2576">
-        <v>34.30308586219449</v>
+        <v>34.30308586219448</v>
       </c>
     </row>
     <row r="2577" spans="1:2">
@@ -20999,7 +20999,7 @@
         <v>2582</v>
       </c>
       <c r="B2582">
-        <v>5.436350538752491</v>
+        <v>5.43635053875249</v>
       </c>
     </row>
     <row r="2583" spans="1:2">
@@ -21351,7 +21351,7 @@
         <v>2626</v>
       </c>
       <c r="B2626">
-        <v>57.66457843782587</v>
+        <v>57.66457843782586</v>
       </c>
     </row>
     <row r="2627" spans="1:2">
@@ -21407,7 +21407,7 @@
         <v>2633</v>
       </c>
       <c r="B2633">
-        <v>0.6945197474196562</v>
+        <v>0.6945197474196561</v>
       </c>
     </row>
     <row r="2634" spans="1:2">
@@ -21487,7 +21487,7 @@
         <v>2643</v>
       </c>
       <c r="B2643">
-        <v>27.80479241485261</v>
+        <v>27.8047924148526</v>
       </c>
     </row>
     <row r="2644" spans="1:2">
@@ -21647,7 +21647,7 @@
         <v>2663</v>
       </c>
       <c r="B2663">
-        <v>8.127270201533232</v>
+        <v>8.12727020153323</v>
       </c>
     </row>
     <row r="2664" spans="1:2">
@@ -21679,7 +21679,7 @@
         <v>2667</v>
       </c>
       <c r="B2667">
-        <v>28.22769392364093</v>
+        <v>28.22769392364092</v>
       </c>
     </row>
     <row r="2668" spans="1:2">
@@ -21735,7 +21735,7 @@
         <v>2674</v>
       </c>
       <c r="B2674">
-        <v>12.48872409178751</v>
+        <v>12.4887240917875</v>
       </c>
     </row>
     <row r="2675" spans="1:2">
@@ -21871,7 +21871,7 @@
         <v>2691</v>
       </c>
       <c r="B2691">
-        <v>19.88724384858544</v>
+        <v>19.88724384858543</v>
       </c>
     </row>
     <row r="2692" spans="1:2">
@@ -22471,7 +22471,7 @@
         <v>2766</v>
       </c>
       <c r="B2766">
-        <v>80.90372557765768</v>
+        <v>80.90372557765767</v>
       </c>
     </row>
     <row r="2767" spans="1:2">
@@ -22527,7 +22527,7 @@
         <v>2773</v>
       </c>
       <c r="B2773">
-        <v>0.0131995678960606</v>
+        <v>0.0131995678960605</v>
       </c>
     </row>
     <row r="2774" spans="1:2">
@@ -22719,7 +22719,7 @@
         <v>2797</v>
       </c>
       <c r="B2797">
-        <v>7.583095896946845</v>
+        <v>7.583095896946844</v>
       </c>
     </row>
     <row r="2798" spans="1:2">
@@ -22855,7 +22855,7 @@
         <v>2814</v>
       </c>
       <c r="B2814">
-        <v>3.845648862210307</v>
+        <v>3.845648862210306</v>
       </c>
     </row>
     <row r="2815" spans="1:2">
@@ -23039,7 +23039,7 @@
         <v>2837</v>
       </c>
       <c r="B2837">
-        <v>32.10944913781432</v>
+        <v>32.10944913781431</v>
       </c>
     </row>
     <row r="2838" spans="1:2">
@@ -23407,7 +23407,7 @@
         <v>2883</v>
       </c>
       <c r="B2883">
-        <v>19.01863990420095</v>
+        <v>19.01863990420094</v>
       </c>
     </row>
     <row r="2884" spans="1:2">
@@ -23439,7 +23439,7 @@
         <v>2887</v>
       </c>
       <c r="B2887">
-        <v>264.7608745474251</v>
+        <v>264.760874547425</v>
       </c>
     </row>
     <row r="2888" spans="1:2">
@@ -23463,7 +23463,7 @@
         <v>2890</v>
       </c>
       <c r="B2890">
-        <v>57.21619176458659</v>
+        <v>57.21619176458658</v>
       </c>
     </row>
     <row r="2891" spans="1:2">
@@ -23487,7 +23487,7 @@
         <v>2893</v>
       </c>
       <c r="B2893">
-        <v>8.654680842708188</v>
+        <v>8.654680842708187</v>
       </c>
     </row>
     <row r="2894" spans="1:2">
@@ -23679,7 +23679,7 @@
         <v>2917</v>
       </c>
       <c r="B2917">
-        <v>7.968689462513577</v>
+        <v>7.968689462513576</v>
       </c>
     </row>
     <row r="2918" spans="1:2">
@@ -23711,7 +23711,7 @@
         <v>2921</v>
       </c>
       <c r="B2921">
-        <v>7.155153566293549</v>
+        <v>7.155153566293548</v>
       </c>
     </row>
     <row r="2922" spans="1:2">
@@ -23815,7 +23815,7 @@
         <v>2934</v>
       </c>
       <c r="B2934">
-        <v>350.3110949075391</v>
+        <v>350.311094907539</v>
       </c>
     </row>
     <row r="2935" spans="1:2">
@@ -23863,7 +23863,7 @@
         <v>2940</v>
       </c>
       <c r="B2940">
-        <v>3.268679908397717</v>
+        <v>3.268679908397716</v>
       </c>
     </row>
     <row r="2941" spans="1:2">
@@ -24983,7 +24983,7 @@
         <v>3080</v>
       </c>
       <c r="B3080">
-        <v>72.78155481219716</v>
+        <v>72.78155481219714</v>
       </c>
     </row>
     <row r="3081" spans="1:2">
@@ -24999,7 +24999,7 @@
         <v>3082</v>
       </c>
       <c r="B3082">
-        <v>62.47776323494158</v>
+        <v>62.47776323494157</v>
       </c>
     </row>
     <row r="3083" spans="1:2">
@@ -25039,7 +25039,7 @@
         <v>3087</v>
       </c>
       <c r="B3087">
-        <v>8.49727238784318</v>
+        <v>8.497272387843179</v>
       </c>
     </row>
     <row r="3088" spans="1:2">
@@ -25199,7 +25199,7 @@
         <v>3107</v>
       </c>
       <c r="B3107">
-        <v>8.205021948090087</v>
+        <v>8.205021948090085</v>
       </c>
     </row>
     <row r="3108" spans="1:2">
@@ -26135,7 +26135,7 @@
         <v>3224</v>
       </c>
       <c r="B3224">
-        <v>47.56291502522464</v>
+        <v>47.56291502522463</v>
       </c>
     </row>
     <row r="3225" spans="1:2">
@@ -26167,7 +26167,7 @@
         <v>3228</v>
       </c>
       <c r="B3228">
-        <v>3.169240904979922</v>
+        <v>3.169240904979921</v>
       </c>
     </row>
     <row r="3229" spans="1:2">
@@ -26183,7 +26183,7 @@
         <v>3230</v>
       </c>
       <c r="B3230">
-        <v>0.7657770397597756</v>
+        <v>0.7657770397597755</v>
       </c>
     </row>
     <row r="3231" spans="1:2">
@@ -26191,7 +26191,7 @@
         <v>3231</v>
       </c>
       <c r="B3231">
-        <v>0.186096885768529</v>
+        <v>0.1860968857685289</v>
       </c>
     </row>
     <row r="3232" spans="1:2">
@@ -26319,7 +26319,7 @@
         <v>3247</v>
       </c>
       <c r="B3247">
-        <v>64.12382397918962</v>
+        <v>64.12382397918961</v>
       </c>
     </row>
     <row r="3248" spans="1:2">
@@ -26495,7 +26495,7 @@
         <v>3269</v>
       </c>
       <c r="B3269">
-        <v>50.11895753459265</v>
+        <v>50.11895753459264</v>
       </c>
     </row>
     <row r="3270" spans="1:2">
@@ -26519,7 +26519,7 @@
         <v>3272</v>
       </c>
       <c r="B3272">
-        <v>22.79954937397096</v>
+        <v>22.79954937397095</v>
       </c>
     </row>
     <row r="3273" spans="1:2">
@@ -26543,7 +26543,7 @@
         <v>3275</v>
       </c>
       <c r="B3275">
-        <v>0.767790437795379</v>
+        <v>0.7677904377953789</v>
       </c>
     </row>
     <row r="3276" spans="1:2">
@@ -26551,7 +26551,7 @@
         <v>3276</v>
       </c>
       <c r="B3276">
-        <v>5.446432182482441</v>
+        <v>5.44643218248244</v>
       </c>
     </row>
     <row r="3277" spans="1:2">
@@ -26719,7 +26719,7 @@
         <v>3297</v>
       </c>
       <c r="B3297">
-        <v>43.24028718617221</v>
+        <v>43.2402871861722</v>
       </c>
     </row>
     <row r="3298" spans="1:2">
@@ -27087,7 +27087,7 @@
         <v>3343</v>
       </c>
       <c r="B3343">
-        <v>8.065051220025428</v>
+        <v>8.065051220025426</v>
       </c>
     </row>
     <row r="3344" spans="1:2">
@@ -27271,7 +27271,7 @@
         <v>3366</v>
       </c>
       <c r="B3366">
-        <v>7.233667297550923</v>
+        <v>7.233667297550922</v>
       </c>
     </row>
     <row r="3367" spans="1:2">
@@ -27279,7 +27279,7 @@
         <v>3367</v>
       </c>
       <c r="B3367">
-        <v>3.91378787869907</v>
+        <v>3.913787878699069</v>
       </c>
     </row>
     <row r="3368" spans="1:2">
@@ -27655,7 +27655,7 @@
         <v>3414</v>
       </c>
       <c r="B3414">
-        <v>9.364381669930502</v>
+        <v>9.3643816699305</v>
       </c>
     </row>
     <row r="3415" spans="1:2">
@@ -27671,7 +27671,7 @@
         <v>3416</v>
       </c>
       <c r="B3416">
-        <v>4.178929247375989</v>
+        <v>4.178929247375988</v>
       </c>
     </row>
     <row r="3417" spans="1:2">
@@ -30191,7 +30191,7 @@
         <v>3731</v>
       </c>
       <c r="B3731">
-        <v>0.7322116137018917</v>
+        <v>0.7322116137018916</v>
       </c>
     </row>
     <row r="3732" spans="1:2">
@@ -30359,7 +30359,7 @@
         <v>3752</v>
       </c>
       <c r="B3752">
-        <v>0.8893299282386256</v>
+        <v>0.8893299282386254</v>
       </c>
     </row>
     <row r="3753" spans="1:2">
@@ -30375,7 +30375,7 @@
         <v>3754</v>
       </c>
       <c r="B3754">
-        <v>1.061177993178479</v>
+        <v>1.061177993178478</v>
       </c>
     </row>
     <row r="3755" spans="1:2">
@@ -32871,7 +32871,7 @@
         <v>4066</v>
       </c>
       <c r="B4066">
-        <v>0.917227360408799</v>
+        <v>0.9172273604087988</v>
       </c>
     </row>
     <row r="4067" spans="1:2">
@@ -33039,7 +33039,7 @@
         <v>4087</v>
       </c>
       <c r="B4087">
-        <v>3.063940480788901</v>
+        <v>3.0639404807889</v>
       </c>
     </row>
     <row r="4088" spans="1:2">
@@ -33079,7 +33079,7 @@
         <v>4092</v>
       </c>
       <c r="B4092">
-        <v>2.102186837476284</v>
+        <v>2.102186837476283</v>
       </c>
     </row>
     <row r="4093" spans="1:2">
@@ -33239,7 +33239,7 @@
         <v>4112</v>
       </c>
       <c r="B4112">
-        <v>6.927056376903424</v>
+        <v>6.927056376903423</v>
       </c>
     </row>
     <row r="4113" spans="1:2">
@@ -33423,7 +33423,7 @@
         <v>4135</v>
       </c>
       <c r="B4135">
-        <v>10.35543069426771</v>
+        <v>10.3554306942677</v>
       </c>
     </row>
     <row r="4136" spans="1:2">
@@ -34207,7 +34207,7 @@
         <v>4233</v>
       </c>
       <c r="B4233">
-        <v>1.543886508826421</v>
+        <v>1.54388650882642</v>
       </c>
     </row>
     <row r="4234" spans="1:2">
@@ -34391,7 +34391,7 @@
         <v>4256</v>
       </c>
       <c r="B4256">
-        <v>0.811317348457362</v>
+        <v>0.8113173484573619</v>
       </c>
     </row>
     <row r="4257" spans="1:2">
@@ -34439,7 +34439,7 @@
         <v>4262</v>
       </c>
       <c r="B4262">
-        <v>0.9318135060029742</v>
+        <v>0.931813506002974</v>
       </c>
     </row>
     <row r="4263" spans="1:2">
@@ -34591,7 +34591,7 @@
         <v>4281</v>
       </c>
       <c r="B4281">
-        <v>1.758745679400213</v>
+        <v>1.758745679400212</v>
       </c>
     </row>
     <row r="4282" spans="1:2">
@@ -34775,7 +34775,7 @@
         <v>4304</v>
       </c>
       <c r="B4304">
-        <v>0.7245624595928306</v>
+        <v>0.7245624595928305</v>
       </c>
     </row>
     <row r="4305" spans="1:2">
@@ -35567,7 +35567,7 @@
         <v>4403</v>
       </c>
       <c r="B4403">
-        <v>1.011420392234556</v>
+        <v>1.011420392234555</v>
       </c>
     </row>
     <row r="4404" spans="1:2">
@@ -35919,7 +35919,7 @@
         <v>4447</v>
       </c>
       <c r="B4447">
-        <v>0.5980378307819546</v>
+        <v>0.5980378307819545</v>
       </c>
     </row>
     <row r="4448" spans="1:2">
@@ -35951,7 +35951,7 @@
         <v>4451</v>
       </c>
       <c r="B4451">
-        <v>0.8610456422974192</v>
+        <v>0.8610456422974191</v>
       </c>
     </row>
     <row r="4452" spans="1:2">
@@ -36135,7 +36135,7 @@
         <v>4474</v>
       </c>
       <c r="B4474">
-        <v>0.5609145223147221</v>
+        <v>0.5609145223147219</v>
       </c>
     </row>
     <row r="4475" spans="1:2">
@@ -36151,7 +36151,7 @@
         <v>4476</v>
       </c>
       <c r="B4476">
-        <v>0.3997459660236884</v>
+        <v>0.3997459660236883</v>
       </c>
     </row>
     <row r="4477" spans="1:2">
@@ -36703,7 +36703,7 @@
         <v>4545</v>
       </c>
       <c r="B4545">
-        <v>0.648871002437765</v>
+        <v>0.6488710024377649</v>
       </c>
     </row>
     <row r="4546" spans="1:2">
@@ -36903,7 +36903,7 @@
         <v>4570</v>
       </c>
       <c r="B4570">
-        <v>0.4489496627045417</v>
+        <v>0.4489496627045416</v>
       </c>
     </row>
     <row r="4571" spans="1:2">
@@ -36911,7 +36911,7 @@
         <v>4571</v>
       </c>
       <c r="B4571">
-        <v>0.7737837405360036</v>
+        <v>0.7737837405360035</v>
       </c>
     </row>
     <row r="4572" spans="1:2">
@@ -37447,7 +37447,7 @@
         <v>4638</v>
       </c>
       <c r="B4638">
-        <v>8.868124480165246</v>
+        <v>8.868124480165244</v>
       </c>
     </row>
     <row r="4639" spans="1:2">
@@ -37511,7 +37511,7 @@
         <v>4646</v>
       </c>
       <c r="B4646">
-        <v>0.7658678917817606</v>
+        <v>0.7658678917817605</v>
       </c>
     </row>
     <row r="4647" spans="1:2">
@@ -38415,7 +38415,7 @@
         <v>4759</v>
       </c>
       <c r="B4759">
-        <v>0.6999151852414115</v>
+        <v>0.6999151852414114</v>
       </c>
     </row>
     <row r="4760" spans="1:2">
@@ -39383,7 +39383,7 @@
         <v>4880</v>
       </c>
       <c r="B4880">
-        <v>0.2043402648541591</v>
+        <v>0.204340264854159</v>
       </c>
     </row>
     <row r="4881" spans="1:2">
@@ -39575,7 +39575,7 @@
         <v>4904</v>
       </c>
       <c r="B4904">
-        <v>0.8892302840854807</v>
+        <v>0.8892302840854805</v>
       </c>
     </row>
     <row r="4905" spans="1:2">
@@ -39607,7 +39607,7 @@
         <v>4908</v>
       </c>
       <c r="B4908">
-        <v>0.4324907931733205</v>
+        <v>0.4324907931733204</v>
       </c>
     </row>
     <row r="4909" spans="1:2">
@@ -42655,7 +42655,7 @@
         <v>5289</v>
       </c>
       <c r="B5289">
-        <v>6.806193880559485</v>
+        <v>6.806193880559484</v>
       </c>
     </row>
     <row r="5290" spans="1:2">
@@ -42823,7 +42823,7 @@
         <v>5310</v>
       </c>
       <c r="B5310">
-        <v>45.11770025983679</v>
+        <v>45.11770025983678</v>
       </c>
     </row>
     <row r="5311" spans="1:2">
@@ -43623,7 +43623,7 @@
         <v>5410</v>
       </c>
       <c r="B5410">
-        <v>0.9720228525073108</v>
+        <v>0.9720228525073106</v>
       </c>
     </row>
     <row r="5411" spans="1:2">
@@ -44191,7 +44191,7 @@
         <v>5481</v>
       </c>
       <c r="B5481">
-        <v>12.34368323475401</v>
+        <v>12.343683234754</v>
       </c>
     </row>
     <row r="5482" spans="1:2">
@@ -45335,7 +45335,7 @@
         <v>5624</v>
       </c>
       <c r="B5624">
-        <v>22.4247994368347</v>
+        <v>22.42479943683469</v>
       </c>
     </row>
     <row r="5625" spans="1:2">
@@ -45359,7 +45359,7 @@
         <v>5627</v>
       </c>
       <c r="B5627">
-        <v>2.092084678773627</v>
+        <v>2.092084678773626</v>
       </c>
     </row>
     <row r="5628" spans="1:2">
@@ -46479,7 +46479,7 @@
         <v>5767</v>
       </c>
       <c r="B5767">
-        <v>2.533449662997613</v>
+        <v>2.533449662997612</v>
       </c>
     </row>
     <row r="5768" spans="1:2">
@@ -46711,7 +46711,7 @@
         <v>5796</v>
       </c>
       <c r="B5796">
-        <v>1.263945052697104</v>
+        <v>1.263945052697103</v>
       </c>
     </row>
     <row r="5797" spans="1:2">
@@ -49023,7 +49023,7 @@
         <v>6085</v>
       </c>
       <c r="B6085">
-        <v>0.6605059226726203</v>
+        <v>0.6605059226726202</v>
       </c>
     </row>
     <row r="6086" spans="1:2">
@@ -50343,7 +50343,7 @@
         <v>6250</v>
       </c>
       <c r="B6250">
-        <v>2.016267201071937</v>
+        <v>2.016267201071936</v>
       </c>
     </row>
     <row r="6251" spans="1:2">
@@ -50359,7 +50359,7 @@
         <v>6252</v>
       </c>
       <c r="B6252">
-        <v>0.5285594796465095</v>
+        <v>0.5285594796465094</v>
       </c>
     </row>
     <row r="6253" spans="1:2">
@@ -50503,7 +50503,7 @@
         <v>6270</v>
       </c>
       <c r="B6270">
-        <v>4.063078265793159</v>
+        <v>4.063078265793158</v>
       </c>
     </row>
     <row r="6271" spans="1:2">
@@ -50511,7 +50511,7 @@
         <v>6271</v>
       </c>
       <c r="B6271">
-        <v>9.156066775650018</v>
+        <v>9.156066775650016</v>
       </c>
     </row>
     <row r="6272" spans="1:2">
@@ -50527,7 +50527,7 @@
         <v>6273</v>
       </c>
       <c r="B6273">
-        <v>3.84145794635745</v>
+        <v>3.841457946357449</v>
       </c>
     </row>
     <row r="6274" spans="1:2">
@@ -50687,7 +50687,7 @@
         <v>6293</v>
       </c>
       <c r="B6293">
-        <v>81.10184159979275</v>
+        <v>81.10184159979273</v>
       </c>
     </row>
     <row r="6294" spans="1:2">
@@ -50727,7 +50727,7 @@
         <v>6298</v>
       </c>
       <c r="B6298">
-        <v>46.20294231599975</v>
+        <v>46.20294231599974</v>
       </c>
     </row>
     <row r="6299" spans="1:2">
@@ -50735,7 +50735,7 @@
         <v>6299</v>
       </c>
       <c r="B6299">
-        <v>59.83572782140955</v>
+        <v>59.83572782140954</v>
       </c>
     </row>
     <row r="6300" spans="1:2">
@@ -50759,7 +50759,7 @@
         <v>6302</v>
       </c>
       <c r="B6302">
-        <v>5.838414696691991</v>
+        <v>5.83841469669199</v>
       </c>
     </row>
     <row r="6303" spans="1:2">
@@ -51519,7 +51519,7 @@
         <v>6397</v>
       </c>
       <c r="B6397">
-        <v>6.286139322454928</v>
+        <v>6.286139322454927</v>
       </c>
     </row>
     <row r="6398" spans="1:2">
@@ -51679,7 +51679,7 @@
         <v>6417</v>
       </c>
       <c r="B6417">
-        <v>83.57360273986254</v>
+        <v>83.57360273986252</v>
       </c>
     </row>
     <row r="6418" spans="1:2">
@@ -51735,7 +51735,7 @@
         <v>6424</v>
       </c>
       <c r="B6424">
-        <v>0.435474256346893</v>
+        <v>0.4354742563468929</v>
       </c>
     </row>
     <row r="6425" spans="1:2">
@@ -51887,7 +51887,7 @@
         <v>6443</v>
       </c>
       <c r="B6443">
-        <v>3.399917119510267</v>
+        <v>3.399917119510266</v>
       </c>
     </row>
     <row r="6444" spans="1:2">
@@ -52071,7 +52071,7 @@
         <v>6466</v>
       </c>
       <c r="B6466">
-        <v>7.091205465657644</v>
+        <v>7.091205465657643</v>
       </c>
     </row>
     <row r="6467" spans="1:2">
@@ -52087,7 +52087,7 @@
         <v>6468</v>
       </c>
       <c r="B6468">
-        <v>6.320487248186038</v>
+        <v>6.320487248186037</v>
       </c>
     </row>
     <row r="6469" spans="1:2">
@@ -52095,7 +52095,7 @@
         <v>6469</v>
       </c>
       <c r="B6469">
-        <v>0.8876389083455496</v>
+        <v>0.8876389083455495</v>
       </c>
     </row>
     <row r="6470" spans="1:2">
@@ -52807,7 +52807,7 @@
         <v>6558</v>
       </c>
       <c r="B6558">
-        <v>13.62856528245308</v>
+        <v>13.62856528245307</v>
       </c>
     </row>
     <row r="6559" spans="1:2">
@@ -52999,7 +52999,7 @@
         <v>6582</v>
       </c>
       <c r="B6582">
-        <v>281.3496038558771</v>
+        <v>281.349603855877</v>
       </c>
     </row>
     <row r="6583" spans="1:2">
@@ -53023,7 +53023,7 @@
         <v>6585</v>
       </c>
       <c r="B6585">
-        <v>87.69908755262824</v>
+        <v>87.69908755262823</v>
       </c>
     </row>
     <row r="6586" spans="1:2">
@@ -53031,7 +53031,7 @@
         <v>6586</v>
       </c>
       <c r="B6586">
-        <v>52.20796789817072</v>
+        <v>52.20796789817071</v>
       </c>
     </row>
     <row r="6587" spans="1:2">
@@ -53095,7 +53095,7 @@
         <v>6594</v>
       </c>
       <c r="B6594">
-        <v>12.2378552826934</v>
+        <v>12.23785528269339</v>
       </c>
     </row>
     <row r="6595" spans="1:2">
@@ -53199,7 +53199,7 @@
         <v>6607</v>
       </c>
       <c r="B6607">
-        <v>437.6215878471647</v>
+        <v>437.6215878471646</v>
       </c>
     </row>
     <row r="6608" spans="1:2">
@@ -53287,7 +53287,7 @@
         <v>6618</v>
       </c>
       <c r="B6618">
-        <v>32.5144733132443</v>
+        <v>32.51447331324429</v>
       </c>
     </row>
     <row r="6619" spans="1:2">
@@ -53375,7 +53375,7 @@
         <v>6629</v>
       </c>
       <c r="B6629">
-        <v>425.0387879519669</v>
+        <v>425.0387879519668</v>
       </c>
     </row>
     <row r="6630" spans="1:2">
@@ -53455,7 +53455,7 @@
         <v>6639</v>
       </c>
       <c r="B6639">
-        <v>0.6136321407491249</v>
+        <v>0.6136321407491248</v>
       </c>
     </row>
     <row r="6640" spans="1:2">
@@ -53599,7 +53599,7 @@
         <v>6657</v>
       </c>
       <c r="B6657">
-        <v>51.91753449885732</v>
+        <v>51.91753449885731</v>
       </c>
     </row>
     <row r="6658" spans="1:2">
@@ -54519,7 +54519,7 @@
         <v>6772</v>
       </c>
       <c r="B6772">
-        <v>5.813005437640052</v>
+        <v>5.813005437640051</v>
       </c>
     </row>
     <row r="6773" spans="1:2">
@@ -54535,7 +54535,7 @@
         <v>6774</v>
       </c>
       <c r="B6774">
-        <v>238.0989712620402</v>
+        <v>238.0989712620401</v>
       </c>
     </row>
     <row r="6775" spans="1:2">
@@ -54551,7 +54551,7 @@
         <v>6776</v>
       </c>
       <c r="B6776">
-        <v>178.4094272747149</v>
+        <v>178.4094272747148</v>
       </c>
     </row>
     <row r="6777" spans="1:2">
@@ -54591,7 +54591,7 @@
         <v>6781</v>
       </c>
       <c r="B6781">
-        <v>4.448671831359891</v>
+        <v>4.44867183135989</v>
       </c>
     </row>
     <row r="6782" spans="1:2">
@@ -54687,7 +54687,7 @@
         <v>6793</v>
       </c>
       <c r="B6793">
-        <v>7.185603647210463</v>
+        <v>7.185603647210462</v>
       </c>
     </row>
     <row r="6794" spans="1:2">
@@ -54903,7 +54903,7 @@
         <v>6820</v>
       </c>
       <c r="B6820">
-        <v>31.86795860195737</v>
+        <v>31.86795860195736</v>
       </c>
     </row>
     <row r="6821" spans="1:2">
@@ -54919,7 +54919,7 @@
         <v>6822</v>
       </c>
       <c r="B6822">
-        <v>513.7590991230729</v>
+        <v>513.7590991230728</v>
       </c>
     </row>
     <row r="6823" spans="1:2">
@@ -54943,7 +54943,7 @@
         <v>6825</v>
       </c>
       <c r="B6825">
-        <v>200.1400586493763</v>
+        <v>200.1400586493762</v>
       </c>
     </row>
     <row r="6826" spans="1:2">
@@ -54983,7 +54983,7 @@
         <v>6830</v>
       </c>
       <c r="B6830">
-        <v>54.82919526795779</v>
+        <v>54.82919526795778</v>
       </c>
     </row>
     <row r="6831" spans="1:2">
@@ -54999,7 +54999,7 @@
         <v>6832</v>
       </c>
       <c r="B6832">
-        <v>58.14881092287485</v>
+        <v>58.14881092287484</v>
       </c>
     </row>
     <row r="6833" spans="1:2">
@@ -55495,7 +55495,7 @@
         <v>6894</v>
       </c>
       <c r="B6894">
-        <v>597.1252075675632</v>
+        <v>597.1252075675631</v>
       </c>
     </row>
     <row r="6895" spans="1:2">
@@ -55647,7 +55647,7 @@
         <v>6913</v>
       </c>
       <c r="B6913">
-        <v>14.38243191520166</v>
+        <v>14.38243191520165</v>
       </c>
     </row>
     <row r="6914" spans="1:2">
@@ -55767,7 +55767,7 @@
         <v>6928</v>
       </c>
       <c r="B6928">
-        <v>5.714211190507313</v>
+        <v>5.714211190507312</v>
       </c>
     </row>
     <row r="6929" spans="1:2">
@@ -55855,7 +55855,7 @@
         <v>6939</v>
       </c>
       <c r="B6939">
-        <v>23.57044343406576</v>
+        <v>23.57044343406575</v>
       </c>
     </row>
     <row r="6940" spans="1:2">
@@ -55967,7 +55967,7 @@
         <v>6953</v>
       </c>
       <c r="B6953">
-        <v>15.42922305109225</v>
+        <v>15.42922305109224</v>
       </c>
     </row>
     <row r="6954" spans="1:2">
@@ -56119,7 +56119,7 @@
         <v>6972</v>
       </c>
       <c r="B6972">
-        <v>8.980693066115069</v>
+        <v>8.980693066115068</v>
       </c>
     </row>
     <row r="6973" spans="1:2">
@@ -56159,7 +56159,7 @@
         <v>6977</v>
       </c>
       <c r="B6977">
-        <v>2.066103931196299</v>
+        <v>2.066103931196298</v>
       </c>
     </row>
     <row r="6978" spans="1:2">
@@ -56831,7 +56831,7 @@
         <v>7061</v>
       </c>
       <c r="B7061">
-        <v>15.82243646366418</v>
+        <v>15.82243646366417</v>
       </c>
     </row>
     <row r="7062" spans="1:2">
@@ -56879,7 +56879,7 @@
         <v>7067</v>
       </c>
       <c r="B7067">
-        <v>4.739486223023544</v>
+        <v>4.739486223023543</v>
       </c>
     </row>
     <row r="7068" spans="1:2">
@@ -57071,7 +57071,7 @@
         <v>7091</v>
       </c>
       <c r="B7091">
-        <v>7.027931428410659</v>
+        <v>7.027931428410658</v>
       </c>
     </row>
     <row r="7092" spans="1:2">
@@ -57095,7 +57095,7 @@
         <v>7094</v>
       </c>
       <c r="B7094">
-        <v>0.6967910479692816</v>
+        <v>0.6967910479692815</v>
       </c>
     </row>
     <row r="7095" spans="1:2">
@@ -57431,7 +57431,7 @@
         <v>7136</v>
       </c>
       <c r="B7136">
-        <v>88.75773634274307</v>
+        <v>88.75773634274306</v>
       </c>
     </row>
     <row r="7137" spans="1:2">
@@ -57463,7 +57463,7 @@
         <v>7140</v>
       </c>
       <c r="B7140">
-        <v>7.798151425116541</v>
+        <v>7.79815142511654</v>
       </c>
     </row>
     <row r="7141" spans="1:2">
@@ -57511,7 +57511,7 @@
         <v>7146</v>
       </c>
       <c r="B7146">
-        <v>4.889743744545216</v>
+        <v>4.889743744545215</v>
       </c>
     </row>
     <row r="7147" spans="1:2">
@@ -57679,7 +57679,7 @@
         <v>7167</v>
       </c>
       <c r="B7167">
-        <v>6.429157989321665</v>
+        <v>6.429157989321664</v>
       </c>
     </row>
     <row r="7168" spans="1:2">
@@ -57767,7 +57767,7 @@
         <v>7178</v>
       </c>
       <c r="B7178">
-        <v>28.26028342314008</v>
+        <v>28.26028342314007</v>
       </c>
     </row>
     <row r="7179" spans="1:2">
@@ -57791,7 +57791,7 @@
         <v>7181</v>
       </c>
       <c r="B7181">
-        <v>40.14457780479242</v>
+        <v>40.14457780479241</v>
       </c>
     </row>
     <row r="7182" spans="1:2">
@@ -57799,7 +57799,7 @@
         <v>7182</v>
       </c>
       <c r="B7182">
-        <v>51.8431252274964</v>
+        <v>51.84312522749639</v>
       </c>
     </row>
     <row r="7183" spans="1:2">
@@ -57999,7 +57999,7 @@
         <v>7207</v>
       </c>
       <c r="B7207">
-        <v>45.57137422768455</v>
+        <v>45.57137422768454</v>
       </c>
     </row>
     <row r="7208" spans="1:2">
@@ -58455,7 +58455,7 @@
         <v>7264</v>
       </c>
       <c r="B7264">
-        <v>53.50715181255646</v>
+        <v>53.50715181255645</v>
       </c>
     </row>
     <row r="7265" spans="1:2">
@@ -58519,7 +58519,7 @@
         <v>7272</v>
       </c>
       <c r="B7272">
-        <v>26.12989142890302</v>
+        <v>26.12989142890301</v>
       </c>
     </row>
     <row r="7273" spans="1:2">
@@ -58535,7 +58535,7 @@
         <v>7274</v>
       </c>
       <c r="B7274">
-        <v>32.74629250482542</v>
+        <v>32.74629250482541</v>
       </c>
     </row>
     <row r="7275" spans="1:2">
@@ -58759,7 +58759,7 @@
         <v>7302</v>
       </c>
       <c r="B7302">
-        <v>484.6726777490504</v>
+        <v>484.6726777490503</v>
       </c>
     </row>
     <row r="7303" spans="1:2">
@@ -58767,7 +58767,7 @@
         <v>7303</v>
       </c>
       <c r="B7303">
-        <v>469.2290062957521</v>
+        <v>469.229006295752</v>
       </c>
     </row>
     <row r="7304" spans="1:2">
@@ -58895,7 +58895,7 @@
         <v>7319</v>
       </c>
       <c r="B7319">
-        <v>27.1116207942108</v>
+        <v>27.11162079421079</v>
       </c>
     </row>
     <row r="7320" spans="1:2">
@@ -58903,7 +58903,7 @@
         <v>7320</v>
       </c>
       <c r="B7320">
-        <v>30.76601149659071</v>
+        <v>30.7660114965907</v>
       </c>
     </row>
     <row r="7321" spans="1:2">
@@ -58951,7 +58951,7 @@
         <v>7326</v>
       </c>
       <c r="B7326">
-        <v>639.711653266482</v>
+        <v>639.7116532664818</v>
       </c>
     </row>
     <row r="7327" spans="1:2">
@@ -58975,7 +58975,7 @@
         <v>7329</v>
       </c>
       <c r="B7329">
-        <v>349.1141341714384</v>
+        <v>349.1141341714383</v>
       </c>
     </row>
     <row r="7330" spans="1:2">
@@ -58999,7 +58999,7 @@
         <v>7332</v>
       </c>
       <c r="B7332">
-        <v>126.2005801634282</v>
+        <v>126.2005801634281</v>
       </c>
     </row>
     <row r="7333" spans="1:2">
@@ -59007,7 +59007,7 @@
         <v>7333</v>
       </c>
       <c r="B7333">
-        <v>76.16259815681764</v>
+        <v>76.16259815681762</v>
       </c>
     </row>
     <row r="7334" spans="1:2">
@@ -59271,7 +59271,7 @@
         <v>7366</v>
       </c>
       <c r="B7366">
-        <v>8.982011885789046</v>
+        <v>8.982011885789044</v>
       </c>
     </row>
     <row r="7367" spans="1:2">
@@ -59375,7 +59375,7 @@
         <v>7379</v>
       </c>
       <c r="B7379">
-        <v>20.42168819468827</v>
+        <v>20.42168819468826</v>
       </c>
     </row>
     <row r="7380" spans="1:2">
@@ -59495,7 +59495,7 @@
         <v>7394</v>
       </c>
       <c r="B7394">
-        <v>26.76652671547668</v>
+        <v>26.76652671547667</v>
       </c>
     </row>
     <row r="7395" spans="1:2">
@@ -59527,7 +59527,7 @@
         <v>7398</v>
       </c>
       <c r="B7398">
-        <v>851.9838857820104</v>
+        <v>851.9838857820102</v>
       </c>
     </row>
     <row r="7399" spans="1:2">
@@ -59551,7 +59551,7 @@
         <v>7401</v>
       </c>
       <c r="B7401">
-        <v>382.6232905898993</v>
+        <v>382.6232905898992</v>
       </c>
     </row>
     <row r="7402" spans="1:2">
@@ -59703,7 +59703,7 @@
         <v>7420</v>
       </c>
       <c r="B7420">
-        <v>17.16393983603262</v>
+        <v>17.16393983603261</v>
       </c>
     </row>
     <row r="7421" spans="1:2">
@@ -59719,7 +59719,7 @@
         <v>7422</v>
       </c>
       <c r="B7422">
-        <v>535.468336311912</v>
+        <v>535.4683363119119</v>
       </c>
     </row>
     <row r="7423" spans="1:2">
@@ -59815,7 +59815,7 @@
         <v>7434</v>
       </c>
       <c r="B7434">
-        <v>51.59662171152315</v>
+        <v>51.59662171152314</v>
       </c>
     </row>
     <row r="7435" spans="1:2">
@@ -60111,7 +60111,7 @@
         <v>7471</v>
       </c>
       <c r="B7471">
-        <v>501.3958973571441</v>
+        <v>501.395897357144</v>
       </c>
     </row>
     <row r="7472" spans="1:2">
@@ -60239,7 +60239,7 @@
         <v>7487</v>
       </c>
       <c r="B7487">
-        <v>24.51712150314964</v>
+        <v>24.51712150314963</v>
       </c>
     </row>
     <row r="7488" spans="1:2">
@@ -60279,7 +60279,7 @@
         <v>7492</v>
       </c>
       <c r="B7492">
-        <v>44.23561270310556</v>
+        <v>44.23561270310555</v>
       </c>
     </row>
     <row r="7493" spans="1:2">
@@ -60295,7 +60295,7 @@
         <v>7494</v>
       </c>
       <c r="B7494">
-        <v>879.9636709140476</v>
+        <v>879.9636709140475</v>
       </c>
     </row>
     <row r="7495" spans="1:2">
@@ -60463,7 +60463,7 @@
         <v>7515</v>
       </c>
       <c r="B7515">
-        <v>78.74335241616558</v>
+        <v>78.74335241616556</v>
       </c>
     </row>
     <row r="7516" spans="1:2">
@@ -60695,7 +60695,7 @@
         <v>7544</v>
       </c>
       <c r="B7544">
-        <v>169.3308777887908</v>
+        <v>169.3308777887907</v>
       </c>
     </row>
     <row r="7545" spans="1:2">
@@ -60983,7 +60983,7 @@
         <v>7580</v>
       </c>
       <c r="B7580">
-        <v>1.504195898060515</v>
+        <v>1.504195898060514</v>
       </c>
     </row>
     <row r="7581" spans="1:2">
@@ -60991,7 +60991,7 @@
         <v>7581</v>
       </c>
       <c r="B7581">
-        <v>3.041725696058371</v>
+        <v>3.04172569605837</v>
       </c>
     </row>
     <row r="7582" spans="1:2">
@@ -61079,7 +61079,7 @@
         <v>7592</v>
       </c>
       <c r="B7592">
-        <v>835.8447567539687</v>
+        <v>835.8447567539686</v>
       </c>
     </row>
     <row r="7593" spans="1:2">
@@ -61183,7 +61183,7 @@
         <v>7605</v>
       </c>
       <c r="B7605">
-        <v>35.87482584253528</v>
+        <v>35.87482584253527</v>
       </c>
     </row>
     <row r="7606" spans="1:2">
@@ -61351,7 +61351,7 @@
         <v>7626</v>
       </c>
       <c r="B7626">
-        <v>413.8345356084243</v>
+        <v>413.8345356084242</v>
       </c>
     </row>
     <row r="7627" spans="1:2">
@@ -61463,7 +61463,7 @@
         <v>7640</v>
       </c>
       <c r="B7640">
-        <v>748.646158336904</v>
+        <v>748.6461583369039</v>
       </c>
     </row>
     <row r="7641" spans="1:2">
@@ -61527,7 +61527,7 @@
         <v>7648</v>
       </c>
       <c r="B7648">
-        <v>117.3532637270079</v>
+        <v>117.3532637270078</v>
       </c>
     </row>
     <row r="7649" spans="1:2">
@@ -61591,7 +61591,7 @@
         <v>7656</v>
       </c>
       <c r="B7656">
-        <v>28.53152066942115</v>
+        <v>28.53152066942114</v>
       </c>
     </row>
     <row r="7657" spans="1:2">
@@ -61647,7 +61647,7 @@
         <v>7663</v>
       </c>
       <c r="B7663">
-        <v>732.9970440855042</v>
+        <v>732.9970440855041</v>
       </c>
     </row>
     <row r="7664" spans="1:2">
@@ -61663,7 +61663,7 @@
         <v>7665</v>
       </c>
       <c r="B7665">
-        <v>491.0015468289421</v>
+        <v>491.001546828942</v>
       </c>
     </row>
     <row r="7666" spans="1:2">
@@ -61735,7 +61735,7 @@
         <v>7674</v>
       </c>
       <c r="B7674">
-        <v>331.393623125884</v>
+        <v>331.3936231258839</v>
       </c>
     </row>
     <row r="7675" spans="1:2">
@@ -61743,7 +61743,7 @@
         <v>7675</v>
       </c>
       <c r="B7675">
-        <v>453.4808340332847</v>
+        <v>453.4808340332846</v>
       </c>
     </row>
     <row r="7676" spans="1:2">
@@ -61775,7 +61775,7 @@
         <v>7679</v>
       </c>
       <c r="B7679">
-        <v>32.3233909960371</v>
+        <v>32.32339099603709</v>
       </c>
     </row>
     <row r="7680" spans="1:2">
@@ -62031,7 +62031,7 @@
         <v>7711</v>
       </c>
       <c r="B7711">
-        <v>88.51856106809154</v>
+        <v>88.51856106809153</v>
       </c>
     </row>
     <row r="7712" spans="1:2">
@@ -62183,7 +62183,7 @@
         <v>7730</v>
       </c>
       <c r="B7730">
-        <v>29.42606140072717</v>
+        <v>29.42606140072716</v>
       </c>
     </row>
     <row r="7731" spans="1:2">
@@ -62399,7 +62399,7 @@
         <v>7757</v>
       </c>
       <c r="B7757">
-        <v>20.25041747969458</v>
+        <v>20.25041747969457</v>
       </c>
     </row>
     <row r="7758" spans="1:2">
@@ -62487,7 +62487,7 @@
         <v>7768</v>
       </c>
       <c r="B7768">
-        <v>87.45093258135213</v>
+        <v>87.45093258135212</v>
       </c>
     </row>
     <row r="7769" spans="1:2">
@@ -62607,7 +62607,7 @@
         <v>7783</v>
       </c>
       <c r="B7783">
-        <v>662.8997269164063</v>
+        <v>662.8997269164062</v>
       </c>
     </row>
     <row r="7784" spans="1:2">
@@ -62655,7 +62655,7 @@
         <v>7789</v>
       </c>
       <c r="B7789">
-        <v>149.644074015677</v>
+        <v>149.6440740156769</v>
       </c>
     </row>
     <row r="7790" spans="1:2">
@@ -62679,7 +62679,7 @@
         <v>7792</v>
       </c>
       <c r="B7792">
-        <v>77.37280570386579</v>
+        <v>77.37280570386578</v>
       </c>
     </row>
     <row r="7793" spans="1:2">
@@ -62807,7 +62807,7 @@
         <v>7808</v>
       </c>
       <c r="B7808">
-        <v>0.6907655074144042</v>
+        <v>0.6907655074144041</v>
       </c>
     </row>
     <row r="7809" spans="1:2">
@@ -63071,7 +63071,7 @@
         <v>7841</v>
       </c>
       <c r="B7841">
-        <v>22.47890035057158</v>
+        <v>22.47890035057157</v>
       </c>
     </row>
     <row r="7842" spans="1:2">
@@ -63383,7 +63383,7 @@
         <v>7880</v>
       </c>
       <c r="B7880">
-        <v>5.843543439868564</v>
+        <v>5.843543439868563</v>
       </c>
     </row>
     <row r="7881" spans="1:2">
@@ -63631,7 +63631,7 @@
         <v>7911</v>
       </c>
       <c r="B7911">
-        <v>68.62873819436589</v>
+        <v>68.62873819436588</v>
       </c>
     </row>
     <row r="7912" spans="1:2">
@@ -63655,7 +63655,7 @@
         <v>7914</v>
       </c>
       <c r="B7914">
-        <v>180.4350463726305</v>
+        <v>180.4350463726304</v>
       </c>
     </row>
     <row r="7915" spans="1:2">
@@ -63663,7 +63663,7 @@
         <v>7915</v>
       </c>
       <c r="B7915">
-        <v>275.3678100149408</v>
+        <v>275.3678100149407</v>
       </c>
     </row>
     <row r="7916" spans="1:2">
@@ -63791,7 +63791,7 @@
         <v>7931</v>
       </c>
       <c r="B7931">
-        <v>195.0346439274802</v>
+        <v>195.0346439274801</v>
       </c>
     </row>
     <row r="7932" spans="1:2">
@@ -63999,7 +63999,7 @@
         <v>7957</v>
       </c>
       <c r="B7957">
-        <v>7.848032115896701</v>
+        <v>7.8480321158967</v>
       </c>
     </row>
     <row r="7958" spans="1:2">
@@ -64183,7 +64183,7 @@
         <v>7980</v>
       </c>
       <c r="B7980">
-        <v>12.46703683492657</v>
+        <v>12.46703683492656</v>
       </c>
     </row>
     <row r="7981" spans="1:2">
@@ -64191,7 +64191,7 @@
         <v>7981</v>
       </c>
       <c r="B7981">
-        <v>4.359255857464315</v>
+        <v>4.359255857464314</v>
       </c>
     </row>
     <row r="7982" spans="1:2">
@@ -64431,7 +64431,7 @@
         <v>8011</v>
       </c>
       <c r="B8011">
-        <v>328.8272000403266</v>
+        <v>328.8272000403265</v>
       </c>
     </row>
     <row r="8012" spans="1:2">
@@ -64503,7 +64503,7 @@
         <v>8020</v>
       </c>
       <c r="B8020">
-        <v>48.31331462758585</v>
+        <v>48.31331462758584</v>
       </c>
     </row>
     <row r="8021" spans="1:2">
@@ -64527,7 +64527,7 @@
         <v>8023</v>
       </c>
       <c r="B8023">
-        <v>78.10053039996578</v>
+        <v>78.10053039996576</v>
       </c>
     </row>
     <row r="8024" spans="1:2">
@@ -64543,7 +64543,7 @@
         <v>8025</v>
       </c>
       <c r="B8025">
-        <v>65.23796489126185</v>
+        <v>65.23796489126184</v>
       </c>
     </row>
     <row r="8026" spans="1:2">
@@ -64631,7 +64631,7 @@
         <v>8036</v>
       </c>
       <c r="B8036">
-        <v>32.13832542725362</v>
+        <v>32.13832542725361</v>
       </c>
     </row>
     <row r="8037" spans="1:2">
@@ -64663,7 +64663,7 @@
         <v>8040</v>
       </c>
       <c r="B8040">
-        <v>60.81857085666423</v>
+        <v>60.81857085666422</v>
       </c>
     </row>
     <row r="8041" spans="1:2">
@@ -64759,7 +64759,7 @@
         <v>8052</v>
       </c>
       <c r="B8052">
-        <v>29.71217669135693</v>
+        <v>29.71217669135692</v>
       </c>
     </row>
     <row r="8053" spans="1:2">
@@ -64791,7 +64791,7 @@
         <v>8056</v>
       </c>
       <c r="B8056">
-        <v>14.66583160958718</v>
+        <v>14.66583160958717</v>
       </c>
     </row>
     <row r="8057" spans="1:2">
@@ -64847,7 +64847,7 @@
         <v>8063</v>
       </c>
       <c r="B8063">
-        <v>38.98513016164041</v>
+        <v>38.9851301616404</v>
       </c>
     </row>
     <row r="8064" spans="1:2">
@@ -64871,7 +64871,7 @@
         <v>8066</v>
       </c>
       <c r="B8066">
-        <v>68.31474188354413</v>
+        <v>68.31474188354412</v>
       </c>
     </row>
     <row r="8067" spans="1:2">
@@ -64887,7 +64887,7 @@
         <v>8068</v>
       </c>
       <c r="B8068">
-        <v>93.26311742008393</v>
+        <v>93.26311742008392</v>
       </c>
     </row>
     <row r="8069" spans="1:2">
@@ -64895,7 +64895,7 @@
         <v>8069</v>
       </c>
       <c r="B8069">
-        <v>98.17059196246817</v>
+        <v>98.17059196246815</v>
       </c>
     </row>
     <row r="8070" spans="1:2">
@@ -64935,7 +64935,7 @@
         <v>8074</v>
       </c>
       <c r="B8074">
-        <v>483.5414235398176</v>
+        <v>483.5414235398175</v>
       </c>
     </row>
     <row r="8075" spans="1:2">
@@ -64975,7 +64975,7 @@
         <v>8079</v>
       </c>
       <c r="B8079">
-        <v>136.8214409013459</v>
+        <v>136.8214409013458</v>
       </c>
     </row>
     <row r="8080" spans="1:2">
@@ -64991,7 +64991,7 @@
         <v>8081</v>
       </c>
       <c r="B8081">
-        <v>212.8468862081356</v>
+        <v>212.8468862081355</v>
       </c>
     </row>
     <row r="8082" spans="1:2">
@@ -65159,7 +65159,7 @@
         <v>8102</v>
       </c>
       <c r="B8102">
-        <v>133.1119865468671</v>
+        <v>133.111986546867</v>
       </c>
     </row>
     <row r="8103" spans="1:2">
@@ -65167,7 +65167,7 @@
         <v>8103</v>
       </c>
       <c r="B8103">
-        <v>95.69502089889578</v>
+        <v>95.69502089889576</v>
       </c>
     </row>
     <row r="8104" spans="1:2">
@@ -65255,7 +65255,7 @@
         <v>8114</v>
       </c>
       <c r="B8114">
-        <v>33.34503663681055</v>
+        <v>33.34503663681054</v>
       </c>
     </row>
     <row r="8115" spans="1:2">
@@ -65455,7 +65455,7 @@
         <v>8139</v>
       </c>
       <c r="B8139">
-        <v>51.74848526233669</v>
+        <v>51.74848526233668</v>
       </c>
     </row>
     <row r="8140" spans="1:2">
@@ -65519,7 +65519,7 @@
         <v>8147</v>
       </c>
       <c r="B8147">
-        <v>371.6366434925628</v>
+        <v>371.6366434925627</v>
       </c>
     </row>
     <row r="8148" spans="1:2">
@@ -65751,7 +65751,7 @@
         <v>8176</v>
       </c>
       <c r="B8176">
-        <v>444.4366617801956</v>
+        <v>444.4366617801955</v>
       </c>
     </row>
     <row r="8177" spans="1:2">
@@ -65775,7 +65775,7 @@
         <v>8179</v>
       </c>
       <c r="B8179">
-        <v>711.9469236626144</v>
+        <v>711.9469236626143</v>
       </c>
     </row>
     <row r="8180" spans="1:2">
@@ -65823,7 +65823,7 @@
         <v>8185</v>
       </c>
       <c r="B8185">
-        <v>98.70808424737307</v>
+        <v>98.70808424737305</v>
       </c>
     </row>
     <row r="8186" spans="1:2">
@@ -65927,7 +65927,7 @@
         <v>8198</v>
       </c>
       <c r="B8198">
-        <v>93.81907318042451</v>
+        <v>93.8190731804245</v>
       </c>
     </row>
     <row r="8199" spans="1:2">
@@ -66031,7 +66031,7 @@
         <v>8211</v>
       </c>
       <c r="B8211">
-        <v>233.2405861186317</v>
+        <v>233.2405861186316</v>
       </c>
     </row>
     <row r="8212" spans="1:2">
@@ -66151,7 +66151,7 @@
         <v>8226</v>
       </c>
       <c r="B8226">
-        <v>86.10749494012853</v>
+        <v>86.10749494012852</v>
       </c>
     </row>
     <row r="8227" spans="1:2">
@@ -66343,7 +66343,7 @@
         <v>8250</v>
       </c>
       <c r="B8250">
-        <v>583.1603725753502</v>
+        <v>583.16037257535</v>
       </c>
     </row>
     <row r="8251" spans="1:2">
@@ -66503,7 +66503,7 @@
         <v>8270</v>
       </c>
       <c r="B8270">
-        <v>198.8010463808365</v>
+        <v>198.8010463808364</v>
       </c>
     </row>
     <row r="8271" spans="1:2">
@@ -66607,7 +66607,7 @@
         <v>8283</v>
       </c>
       <c r="B8283">
-        <v>75.02621520440827</v>
+        <v>75.02621520440826</v>
       </c>
     </row>
     <row r="8284" spans="1:2">
@@ -66655,7 +66655,7 @@
         <v>8289</v>
       </c>
       <c r="B8289">
-        <v>715.5071506402724</v>
+        <v>715.5071506402722</v>
       </c>
     </row>
     <row r="8290" spans="1:2">
@@ -66751,7 +66751,7 @@
         <v>8301</v>
       </c>
       <c r="B8301">
-        <v>48.17472426411328</v>
+        <v>48.17472426411327</v>
       </c>
     </row>
     <row r="8302" spans="1:2">
@@ -66791,7 +66791,7 @@
         <v>8306</v>
       </c>
       <c r="B8306">
-        <v>92.22828358257073</v>
+        <v>92.22828358257071</v>
       </c>
     </row>
     <row r="8307" spans="1:2">
@@ -66823,7 +66823,7 @@
         <v>8310</v>
       </c>
       <c r="B8310">
-        <v>1320.830141301271</v>
+        <v>1320.83014130127</v>
       </c>
     </row>
     <row r="8311" spans="1:2">
@@ -66847,7 +66847,7 @@
         <v>8313</v>
       </c>
       <c r="B8313">
-        <v>856.9089445867143</v>
+        <v>856.9089445867141</v>
       </c>
     </row>
     <row r="8314" spans="1:2">
@@ -66863,7 +66863,7 @@
         <v>8315</v>
       </c>
       <c r="B8315">
-        <v>722.1985485949882</v>
+        <v>722.1985485949881</v>
       </c>
     </row>
     <row r="8316" spans="1:2">
@@ -66919,7 +66919,7 @@
         <v>8322</v>
       </c>
       <c r="B8322">
-        <v>603.5044848661047</v>
+        <v>603.5044848661046</v>
       </c>
     </row>
     <row r="8323" spans="1:2">
@@ -66967,7 +66967,7 @@
         <v>8328</v>
       </c>
       <c r="B8328">
-        <v>75.63539266536974</v>
+        <v>75.63539266536972</v>
       </c>
     </row>
     <row r="8329" spans="1:2">
@@ -67079,7 +67079,7 @@
         <v>8342</v>
       </c>
       <c r="B8342">
-        <v>211.4375661974209</v>
+        <v>211.4375661974208</v>
       </c>
     </row>
     <row r="8343" spans="1:2">
@@ -67119,7 +67119,7 @@
         <v>8347</v>
       </c>
       <c r="B8347">
-        <v>583.3098388050674</v>
+        <v>583.3098388050673</v>
       </c>
     </row>
     <row r="8348" spans="1:2">
@@ -67159,7 +67159,7 @@
         <v>8352</v>
       </c>
       <c r="B8352">
-        <v>47.83576416221834</v>
+        <v>47.83576416221833</v>
       </c>
     </row>
     <row r="8353" spans="1:2">
@@ -67207,7 +67207,7 @@
         <v>8358</v>
       </c>
       <c r="B8358">
-        <v>107.1974730242763</v>
+        <v>107.1974730242762</v>
       </c>
     </row>
     <row r="8359" spans="1:2">
@@ -67319,7 +67319,7 @@
         <v>8372</v>
       </c>
       <c r="B8372">
-        <v>38.73487680172749</v>
+        <v>38.73487680172748</v>
       </c>
     </row>
     <row r="8373" spans="1:2">
@@ -67327,7 +67327,7 @@
         <v>8373</v>
       </c>
       <c r="B8373">
-        <v>44.1513864311626</v>
+        <v>44.15138643116259</v>
       </c>
     </row>
     <row r="8374" spans="1:2">
@@ -67359,7 +67359,7 @@
         <v>8377</v>
       </c>
       <c r="B8377">
-        <v>74.30171428973355</v>
+        <v>74.30171428973354</v>
       </c>
     </row>
     <row r="8378" spans="1:2">
@@ -67439,7 +67439,7 @@
         <v>8387</v>
       </c>
       <c r="B8387">
-        <v>87.71909258172727</v>
+        <v>87.71909258172725</v>
       </c>
     </row>
     <row r="8388" spans="1:2">
@@ -67511,7 +67511,7 @@
         <v>8396</v>
       </c>
       <c r="B8396">
-        <v>43.39195144867946</v>
+        <v>43.39195144867945</v>
       </c>
     </row>
     <row r="8397" spans="1:2">
@@ -67535,7 +67535,7 @@
         <v>8399</v>
       </c>
       <c r="B8399">
-        <v>60.11648987644712</v>
+        <v>60.11648987644711</v>
       </c>
     </row>
     <row r="8400" spans="1:2">
@@ -67583,7 +67583,7 @@
         <v>8405</v>
       </c>
       <c r="B8405">
-        <v>78.81061221953836</v>
+        <v>78.81061221953834</v>
       </c>
     </row>
     <row r="8406" spans="1:2">
@@ -67599,7 +67599,7 @@
         <v>8407</v>
       </c>
       <c r="B8407">
-        <v>965.4715425090751</v>
+        <v>965.4715425090749</v>
       </c>
     </row>
     <row r="8408" spans="1:2">
@@ -67607,7 +67607,7 @@
         <v>8408</v>
       </c>
       <c r="B8408">
-        <v>856.4095515368354</v>
+        <v>856.4095515368352</v>
       </c>
     </row>
     <row r="8409" spans="1:2">
@@ -67623,7 +67623,7 @@
         <v>8410</v>
       </c>
       <c r="B8410">
-        <v>675.4071196333565</v>
+        <v>675.4071196333564</v>
       </c>
     </row>
     <row r="8411" spans="1:2">
@@ -67647,7 +67647,7 @@
         <v>8413</v>
       </c>
       <c r="B8413">
-        <v>255.0977655677871</v>
+        <v>255.097765567787</v>
       </c>
     </row>
     <row r="8414" spans="1:2">
@@ -67807,7 +67807,7 @@
         <v>8433</v>
       </c>
       <c r="B8433">
-        <v>545.6844996486079</v>
+        <v>545.6844996486078</v>
       </c>
     </row>
     <row r="8434" spans="1:2">
@@ -67815,7 +67815,7 @@
         <v>8434</v>
       </c>
       <c r="B8434">
-        <v>400.2327570189049</v>
+        <v>400.2327570189048</v>
       </c>
     </row>
     <row r="8435" spans="1:2">
@@ -67895,7 +67895,7 @@
         <v>8444</v>
       </c>
       <c r="B8444">
-        <v>20.54410396753711</v>
+        <v>20.5441039675371</v>
       </c>
     </row>
     <row r="8445" spans="1:2">
@@ -67903,7 +67903,7 @@
         <v>8445</v>
       </c>
       <c r="B8445">
-        <v>22.54138309601418</v>
+        <v>22.54138309601417</v>
       </c>
     </row>
     <row r="8446" spans="1:2">
@@ -68111,7 +68111,7 @@
         <v>8471</v>
       </c>
       <c r="B8471">
-        <v>38.19829303704243</v>
+        <v>38.19829303704242</v>
       </c>
     </row>
     <row r="8472" spans="1:2">
@@ -68119,7 +68119,7 @@
         <v>8472</v>
       </c>
       <c r="B8472">
-        <v>41.48930730315445</v>
+        <v>41.48930730315444</v>
       </c>
     </row>
     <row r="8473" spans="1:2">
@@ -68271,7 +68271,7 @@
         <v>8491</v>
       </c>
       <c r="B8491">
-        <v>599.9108477900393</v>
+        <v>599.9108477900392</v>
       </c>
     </row>
     <row r="8492" spans="1:2">
@@ -68319,7 +68319,7 @@
         <v>8497</v>
       </c>
       <c r="B8497">
-        <v>64.03924572892923</v>
+        <v>64.03924572892922</v>
       </c>
     </row>
     <row r="8498" spans="1:2">
@@ -68375,7 +68375,7 @@
         <v>8504</v>
       </c>
       <c r="B8504">
-        <v>921.8065953878826</v>
+        <v>921.8065953878825</v>
       </c>
     </row>
     <row r="8505" spans="1:2">
@@ -68487,7 +68487,7 @@
         <v>8518</v>
       </c>
       <c r="B8518">
-        <v>48.08853969148998</v>
+        <v>48.08853969148997</v>
       </c>
     </row>
     <row r="8519" spans="1:2">
@@ -68495,7 +68495,7 @@
         <v>8519</v>
       </c>
       <c r="B8519">
-        <v>54.25509841032408</v>
+        <v>54.25509841032407</v>
       </c>
     </row>
     <row r="8520" spans="1:2">
@@ -68511,7 +68511,7 @@
         <v>8521</v>
       </c>
       <c r="B8521">
-        <v>77.51306950296912</v>
+        <v>77.5130695029691</v>
       </c>
     </row>
     <row r="8522" spans="1:2">
@@ -68559,7 +68559,7 @@
         <v>8527</v>
       </c>
       <c r="B8527">
-        <v>198.508444255837</v>
+        <v>198.5084442558369</v>
       </c>
     </row>
     <row r="8528" spans="1:2">
@@ -68583,7 +68583,7 @@
         <v>8530</v>
       </c>
       <c r="B8530">
-        <v>138.789944849892</v>
+        <v>138.7899448498919</v>
       </c>
     </row>
     <row r="8531" spans="1:2">
@@ -68743,7 +68743,7 @@
         <v>8550</v>
       </c>
       <c r="B8550">
-        <v>326.2853656149129</v>
+        <v>326.2853656149128</v>
       </c>
     </row>
     <row r="8551" spans="1:2">
@@ -68751,7 +68751,7 @@
         <v>8551</v>
       </c>
       <c r="B8551">
-        <v>363.4760804210376</v>
+        <v>363.4760804210375</v>
       </c>
     </row>
     <row r="8552" spans="1:2">
@@ -68767,7 +68767,7 @@
         <v>8553</v>
       </c>
       <c r="B8553">
-        <v>295.0343215493377</v>
+        <v>295.0343215493376</v>
       </c>
     </row>
     <row r="8554" spans="1:2">
@@ -68799,7 +68799,7 @@
         <v>8557</v>
       </c>
       <c r="B8557">
-        <v>87.76657008999041</v>
+        <v>87.7665700899904</v>
       </c>
     </row>
     <row r="8558" spans="1:2">
@@ -68887,7 +68887,7 @@
         <v>8568</v>
       </c>
       <c r="B8568">
-        <v>237.9253266716333</v>
+        <v>237.9253266716332</v>
       </c>
     </row>
     <row r="8569" spans="1:2">
@@ -68927,7 +68927,7 @@
         <v>8573</v>
       </c>
       <c r="B8573">
-        <v>298.6212179915139</v>
+        <v>298.6212179915138</v>
       </c>
     </row>
     <row r="8574" spans="1:2">
@@ -68983,7 +68983,7 @@
         <v>8580</v>
       </c>
       <c r="B8580">
-        <v>866.7165668955162</v>
+        <v>866.7165668955161</v>
       </c>
     </row>
     <row r="8581" spans="1:2">
@@ -69015,7 +69015,7 @@
         <v>8584</v>
       </c>
       <c r="B8584">
-        <v>535.5829270880287</v>
+        <v>535.5829270880286</v>
       </c>
     </row>
     <row r="8585" spans="1:2">
@@ -69039,7 +69039,7 @@
         <v>8587</v>
       </c>
       <c r="B8587">
-        <v>836.9502207117993</v>
+        <v>836.9502207117991</v>
       </c>
     </row>
     <row r="8588" spans="1:2">
@@ -69079,7 +69079,7 @@
         <v>8592</v>
       </c>
       <c r="B8592">
-        <v>99.39064669641535</v>
+        <v>99.39064669641533</v>
       </c>
     </row>
     <row r="8593" spans="1:2">
@@ -69159,7 +69159,7 @@
         <v>8602</v>
       </c>
       <c r="B8602">
-        <v>58.2431797973238</v>
+        <v>58.24317979732379</v>
       </c>
     </row>
     <row r="8603" spans="1:2">
@@ -69167,7 +69167,7 @@
         <v>8603</v>
       </c>
       <c r="B8603">
-        <v>22.97662289553014</v>
+        <v>22.97662289553013</v>
       </c>
     </row>
     <row r="8604" spans="1:2">
@@ -69263,7 +69263,7 @@
         <v>8615</v>
       </c>
       <c r="B8615">
-        <v>84.96920702596786</v>
+        <v>84.96920702596785</v>
       </c>
     </row>
     <row r="8616" spans="1:2">
@@ -69399,7 +69399,7 @@
         <v>8632</v>
       </c>
       <c r="B8632">
-        <v>396.8310521660588</v>
+        <v>396.8310521660587</v>
       </c>
     </row>
     <row r="8633" spans="1:2">
@@ -69439,7 +69439,7 @@
         <v>8637</v>
       </c>
       <c r="B8637">
-        <v>41.31920652774709</v>
+        <v>41.31920652774708</v>
       </c>
     </row>
     <row r="8638" spans="1:2">
@@ -69447,7 +69447,7 @@
         <v>8638</v>
       </c>
       <c r="B8638">
-        <v>42.67436701051715</v>
+        <v>42.67436701051714</v>
       </c>
     </row>
     <row r="8639" spans="1:2">
@@ -69511,7 +69511,7 @@
         <v>8646</v>
       </c>
       <c r="B8646">
-        <v>1243.064034263522</v>
+        <v>1243.064034263521</v>
       </c>
     </row>
     <row r="8647" spans="1:2">
@@ -69599,7 +69599,7 @@
         <v>8657</v>
       </c>
       <c r="B8657">
-        <v>316.5945321150175</v>
+        <v>316.5945321150174</v>
       </c>
     </row>
     <row r="8658" spans="1:2">
@@ -69663,7 +69663,7 @@
         <v>8665</v>
       </c>
       <c r="B8665">
-        <v>39.06804933675094</v>
+        <v>39.06804933675093</v>
       </c>
     </row>
     <row r="8666" spans="1:2">
@@ -69671,7 +69671,7 @@
         <v>8666</v>
       </c>
       <c r="B8666">
-        <v>43.41867952740538</v>
+        <v>43.41867952740537</v>
       </c>
     </row>
     <row r="8667" spans="1:2">
@@ -69743,7 +69743,7 @@
         <v>8675</v>
       </c>
       <c r="B8675">
-        <v>458.5606343464018</v>
+        <v>458.5606343464017</v>
       </c>
     </row>
     <row r="8676" spans="1:2">
@@ -69759,7 +69759,7 @@
         <v>8677</v>
       </c>
       <c r="B8677">
-        <v>343.1924872997666</v>
+        <v>343.1924872997665</v>
       </c>
     </row>
     <row r="8678" spans="1:2">
@@ -69775,7 +69775,7 @@
         <v>8679</v>
       </c>
       <c r="B8679">
-        <v>229.4968966707717</v>
+        <v>229.4968966707716</v>
       </c>
     </row>
     <row r="8680" spans="1:2">
@@ -69839,7 +69839,7 @@
         <v>8687</v>
       </c>
       <c r="B8687">
-        <v>23.0195871097979</v>
+        <v>23.01958710979789</v>
       </c>
     </row>
     <row r="8688" spans="1:2">
@@ -69879,7 +69879,7 @@
         <v>8692</v>
       </c>
       <c r="B8692">
-        <v>34.58296870411607</v>
+        <v>34.58296870411606</v>
       </c>
     </row>
     <row r="8693" spans="1:2">
@@ -69991,7 +69991,7 @@
         <v>8706</v>
       </c>
       <c r="B8706">
-        <v>9.506169438434862</v>
+        <v>9.50616943843486</v>
       </c>
     </row>
     <row r="8707" spans="1:2">
@@ -70215,7 +70215,7 @@
         <v>8734</v>
       </c>
       <c r="B8734">
-        <v>4.248738768785121</v>
+        <v>4.24873876878512</v>
       </c>
     </row>
     <row r="8735" spans="1:2">
@@ -70311,7 +70311,7 @@
         <v>8746</v>
       </c>
       <c r="B8746">
-        <v>608.3594996925685</v>
+        <v>608.3594996925684</v>
       </c>
     </row>
     <row r="8747" spans="1:2">
@@ -70423,7 +70423,7 @@
         <v>8760</v>
       </c>
       <c r="B8760">
-        <v>36.26521551564971</v>
+        <v>36.2652155156497</v>
       </c>
     </row>
   </sheetData>
